--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B4674-3E4C-4FB2-83D5-E26A9278BF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC9C57-1B9A-4500-AE70-83599733290E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="312">
   <si>
     <t>Number</t>
   </si>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>Grumpy Bookstore Owner</t>
+  </si>
+  <si>
+    <t>How Many Numbers Are Smaller Than the Current Number</t>
   </si>
 </sst>
 </file>
@@ -964,12 +967,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1182,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1191,20 +1202,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1217,7 +1229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1253,7 +1265,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1270,9 +1282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1310,7 +1322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1416,7 +1428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1567,10 +1579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7953,6 +7965,29 @@
       </c>
       <c r="G277" s="19">
         <v>43881</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1365</v>
+      </c>
+      <c r="B278" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C278" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" t="s">
+        <v>8</v>
+      </c>
+      <c r="G278" s="19">
+        <v>43892</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC9C57-1B9A-4500-AE70-83599733290E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76907EAE-BC86-4D1C-885F-0D066BC34D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="314">
   <si>
     <t>Number</t>
   </si>
@@ -958,6 +958,12 @@
   </si>
   <si>
     <t>How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Count Negative Numbers in a Sorted Matrix</t>
   </si>
 </sst>
 </file>
@@ -967,12 +973,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1193,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1202,20 +1216,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1579,10 +1594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G280" sqref="G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7988,6 +8003,52 @@
       </c>
       <c r="G278" s="19">
         <v>43892</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>35</v>
+      </c>
+      <c r="B279" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C279" t="s">
+        <v>17</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" s="19">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1351</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C280" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" s="19">
+        <v>43893</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76907EAE-BC86-4D1C-885F-0D066BC34D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1B97A-E5C5-4DA6-A103-F633EA082476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="4620" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="315">
   <si>
     <t>Number</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>Count Negative Numbers in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Arranging Coins</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1280,7 +1283,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1297,9 +1300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1337,7 +1340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1443,7 +1446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1594,24 +1597,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G280" sqref="G280"/>
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6487,7 +6490,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6993,7 +6996,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7499,7 +7502,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7798,7 +7801,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8049,6 +8052,29 @@
       </c>
       <c r="G280" s="19">
         <v>43893</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>441</v>
+      </c>
+      <c r="B281" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="19">
+        <v>43894</v>
       </c>
     </row>
   </sheetData>
@@ -8099,12 +8125,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8115,7 +8141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8126,7 +8152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8137,7 +8163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8148,7 +8174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8167,92 +8193,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1B97A-E5C5-4DA6-A103-F633EA082476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AC157-5C76-49EA-9902-29E38D2F4CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="4620" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6108" yWindow="588" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="316">
   <si>
     <t>Number</t>
   </si>
@@ -967,6 +967,9 @@
   </si>
   <si>
     <t>Arranging Coins</t>
+  </si>
+  <si>
+    <t>Heaters</t>
   </si>
 </sst>
 </file>
@@ -976,12 +979,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1210,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1219,20 +1230,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1247,7 +1259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1283,7 +1295,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1300,9 +1312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1340,7 +1352,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1446,7 +1458,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1597,24 +1609,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1775,7 +1787,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1890,7 +1902,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2051,7 +2063,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3040,7 +3052,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3316,7 +3328,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3362,7 +3374,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3523,7 +3535,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3546,7 +3558,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3615,7 +3627,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3776,7 +3788,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3822,7 +3834,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3960,7 +3972,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3983,7 +3995,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4029,7 +4041,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4052,7 +4064,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4236,7 +4248,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4351,7 +4363,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4466,7 +4478,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4512,7 +4524,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4535,7 +4547,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4788,7 +4800,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4811,7 +4823,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4834,7 +4846,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4903,7 +4915,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5018,7 +5030,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5087,7 +5099,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5110,7 +5122,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5156,7 +5168,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5225,7 +5237,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5294,7 +5306,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5340,7 +5352,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5386,7 +5398,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5409,7 +5421,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5478,7 +5490,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5501,7 +5513,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5524,7 +5536,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5570,7 +5582,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5593,7 +5605,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5616,7 +5628,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5639,7 +5651,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5662,7 +5674,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5731,7 +5743,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5777,7 +5789,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5800,7 +5812,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5823,7 +5835,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5846,7 +5858,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5869,7 +5881,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5892,7 +5904,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5915,7 +5927,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5938,7 +5950,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5984,7 +5996,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6030,7 +6042,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6053,7 +6065,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6122,7 +6134,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6145,7 +6157,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6260,7 +6272,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6283,7 +6295,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6306,7 +6318,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6375,7 +6387,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6398,7 +6410,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6421,7 +6433,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6444,7 +6456,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6513,7 +6525,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6536,7 +6548,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6559,7 +6571,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6582,7 +6594,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6605,7 +6617,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6628,7 +6640,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6651,7 +6663,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6674,7 +6686,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6697,7 +6709,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6720,7 +6732,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6789,7 +6801,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6881,7 +6893,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6904,7 +6916,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6973,7 +6985,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -6996,7 +7008,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7042,7 +7054,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7065,7 +7077,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7134,7 +7146,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7157,7 +7169,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7180,7 +7192,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7203,7 +7215,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7226,7 +7238,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7249,7 +7261,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7272,7 +7284,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7295,7 +7307,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7318,7 +7330,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7341,7 +7353,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7364,7 +7376,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7387,7 +7399,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7433,7 +7445,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7456,7 +7468,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7479,7 +7491,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7502,7 +7514,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7548,7 +7560,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7571,7 +7583,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7594,7 +7606,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7617,7 +7629,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7640,7 +7652,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7686,7 +7698,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7709,7 +7721,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7732,7 +7744,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7755,7 +7767,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7778,7 +7790,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7847,7 +7859,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7870,7 +7882,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7893,7 +7905,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7916,7 +7928,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7939,7 +7951,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -7962,7 +7974,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -7985,7 +7997,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8008,7 +8020,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8031,7 +8043,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8054,7 +8066,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8074,6 +8086,29 @@
         <v>9</v>
       </c>
       <c r="G281" s="19">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>475</v>
+      </c>
+      <c r="B282" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" t="s">
+        <v>6</v>
+      </c>
+      <c r="G282" s="19">
         <v>43894</v>
       </c>
     </row>
@@ -8125,12 +8160,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8141,7 +8176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8152,7 +8187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8174,7 +8209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8193,92 +8228,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AC157-5C76-49EA-9902-29E38D2F4CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D307BBC-5391-40C8-A5CC-EF1793807DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="588" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="4620" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="317">
   <si>
     <t>Number</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>Heaters</t>
+  </si>
+  <si>
+    <t>Capacity To Ship Packages Within D Days</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1295,7 +1298,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1312,9 +1315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1352,7 +1355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1458,7 +1461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1609,24 +1612,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5973,7 +5976,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7100,7 +7103,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7238,7 +7241,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7307,7 +7310,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7491,7 +7494,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7767,7 +7770,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8089,7 +8092,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8103,13 +8106,36 @@
         <v>12</v>
       </c>
       <c r="E282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G282" s="19">
         <v>43894</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1011</v>
+      </c>
+      <c r="B283" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C283" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" t="s">
+        <v>14</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" t="s">
+        <v>7</v>
+      </c>
+      <c r="G283" s="19">
+        <v>43895</v>
       </c>
     </row>
   </sheetData>
@@ -8160,12 +8186,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8176,7 +8202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8187,7 +8213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8198,7 +8224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8209,7 +8235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8228,92 +8254,92 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D307BBC-5391-40C8-A5CC-EF1793807DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EE013-BA88-4B0A-9928-E2A00A4C9D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="4620" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="318">
   <si>
     <t>Number</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>Maximum Nesting Depth of Two Valid Parentheses Strings</t>
   </si>
 </sst>
 </file>
@@ -1612,10 +1615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8136,6 +8139,29 @@
       </c>
       <c r="G283" s="19">
         <v>43895</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1111</v>
+      </c>
+      <c r="B284" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="19">
+        <v>43896</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EE013-BA88-4B0A-9928-E2A00A4C9D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E500DA-7EAB-47AC-9340-8C1024079FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="4620" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="321">
   <si>
     <t>Number</t>
   </si>
@@ -976,6 +976,15 @@
   </si>
   <si>
     <t>Maximum Nesting Depth of Two Valid Parentheses Strings</t>
+  </si>
+  <si>
+    <t>Increasing Decreasing String</t>
+  </si>
+  <si>
+    <t>Longest ZigZag Path in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
   </si>
 </sst>
 </file>
@@ -985,12 +994,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1236,20 +1253,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1265,7 +1283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1318,9 +1336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1358,7 +1376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1464,7 +1482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1615,24 +1633,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1816,7 +1834,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1862,7 +1880,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1908,7 +1926,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1931,7 +1949,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1954,7 +1972,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2000,7 +2018,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2184,7 +2202,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2368,7 +2386,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2391,7 +2409,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2460,7 +2478,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2483,7 +2501,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2529,7 +2547,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2552,7 +2570,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2598,7 +2616,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2644,7 +2662,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2713,7 +2731,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2736,7 +2754,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2782,7 +2800,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2805,7 +2823,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2920,7 +2938,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2966,7 +2984,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3012,7 +3030,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3081,7 +3099,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3127,7 +3145,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3150,7 +3168,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3173,7 +3191,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3265,7 +3283,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3288,7 +3306,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3334,7 +3352,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3357,7 +3375,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3380,7 +3398,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3403,7 +3421,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3472,7 +3490,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3495,7 +3513,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3518,7 +3536,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3541,7 +3559,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3633,7 +3651,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3656,7 +3674,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3679,7 +3697,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3748,7 +3766,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3771,7 +3789,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3817,7 +3835,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3840,7 +3858,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3886,7 +3904,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3909,7 +3927,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3932,7 +3950,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3955,7 +3973,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -3978,7 +3996,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4001,7 +4019,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4024,7 +4042,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4047,7 +4065,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4070,7 +4088,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4093,7 +4111,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4116,7 +4134,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4139,7 +4157,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4185,7 +4203,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4208,7 +4226,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4231,7 +4249,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4254,7 +4272,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4277,7 +4295,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4300,7 +4318,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4323,7 +4341,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4369,7 +4387,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4392,7 +4410,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4415,7 +4433,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4438,7 +4456,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4461,7 +4479,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4484,7 +4502,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4507,7 +4525,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4530,7 +4548,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4576,7 +4594,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4599,7 +4617,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4622,7 +4640,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4645,7 +4663,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4668,7 +4686,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4691,7 +4709,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4714,7 +4732,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4737,7 +4755,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4760,7 +4778,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4783,7 +4801,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4829,7 +4847,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4852,7 +4870,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4875,7 +4893,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4898,7 +4916,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4921,7 +4939,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4944,7 +4962,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4967,7 +4985,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -4990,7 +5008,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5013,7 +5031,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5036,7 +5054,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5059,7 +5077,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5082,7 +5100,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5105,7 +5123,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5128,7 +5146,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5151,7 +5169,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5174,7 +5192,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5197,7 +5215,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5220,7 +5238,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5243,7 +5261,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5266,7 +5284,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5289,7 +5307,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5312,7 +5330,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5335,7 +5353,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5358,7 +5376,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5381,7 +5399,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5404,7 +5422,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5427,7 +5445,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5450,7 +5468,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5473,7 +5491,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5496,7 +5514,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5565,7 +5583,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5588,7 +5606,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5611,7 +5629,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5634,7 +5652,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5657,7 +5675,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5680,7 +5698,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5703,7 +5721,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5726,7 +5744,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5749,7 +5767,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5772,7 +5790,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5818,7 +5836,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5841,7 +5859,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5864,7 +5882,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5887,7 +5905,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5910,7 +5928,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5933,7 +5951,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5956,7 +5974,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -5979,7 +5997,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6002,7 +6020,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6025,7 +6043,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6048,7 +6066,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6094,7 +6112,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6117,7 +6135,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6140,7 +6158,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6163,7 +6181,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6186,7 +6204,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6209,7 +6227,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6232,7 +6250,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6255,7 +6273,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6278,7 +6296,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6301,7 +6319,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6324,7 +6342,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6347,7 +6365,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6370,7 +6388,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6393,7 +6411,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6416,7 +6434,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6439,7 +6457,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6462,7 +6480,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6485,7 +6503,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6508,7 +6526,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6531,7 +6549,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6554,7 +6572,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6577,7 +6595,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6600,7 +6618,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6623,7 +6641,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6646,7 +6664,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6669,7 +6687,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6692,7 +6710,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6715,7 +6733,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6738,7 +6756,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6761,7 +6779,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6784,7 +6802,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6807,7 +6825,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6830,7 +6848,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6853,7 +6871,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6876,7 +6894,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6899,7 +6917,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6922,7 +6940,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6945,7 +6963,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6968,7 +6986,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7014,7 +7032,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7037,7 +7055,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7060,7 +7078,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7083,7 +7101,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7106,7 +7124,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7129,7 +7147,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7152,7 +7170,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7175,7 +7193,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7198,7 +7216,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7221,7 +7239,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7244,7 +7262,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7267,7 +7285,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7290,7 +7308,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7313,7 +7331,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7336,7 +7354,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7359,7 +7377,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7382,7 +7400,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7405,7 +7423,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7428,7 +7446,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7451,7 +7469,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7474,7 +7492,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7497,7 +7515,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7520,7 +7538,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7543,7 +7561,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7566,7 +7584,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7589,7 +7607,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7612,7 +7630,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7658,7 +7676,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7681,7 +7699,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7704,7 +7722,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7727,7 +7745,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7750,7 +7768,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7773,7 +7791,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7796,7 +7814,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7819,7 +7837,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7842,7 +7860,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7865,7 +7883,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7911,7 +7929,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7934,7 +7952,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7957,7 +7975,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -7980,7 +7998,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8003,7 +8021,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8026,7 +8044,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8049,7 +8067,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8072,7 +8090,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8095,7 +8113,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8118,7 +8136,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8141,7 +8159,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8162,6 +8180,52 @@
       </c>
       <c r="G284" s="19">
         <v>43896</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1370</v>
+      </c>
+      <c r="B285" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C285" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" t="s">
+        <v>8</v>
+      </c>
+      <c r="G285" s="19">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1372</v>
+      </c>
+      <c r="B286" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C286" t="s">
+        <v>26</v>
+      </c>
+      <c r="D286" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="19">
+        <v>43897</v>
       </c>
     </row>
   </sheetData>
@@ -8212,12 +8276,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8228,7 +8292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8239,7 +8303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8250,7 +8314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8261,7 +8325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8276,96 +8340,96 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E500DA-7EAB-47AC-9340-8C1024079FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F207C-F240-413F-94F1-B2BFC687EA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="288" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="322">
   <si>
     <t>Number</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Find the Longest Substring Containing Vowels in Even Counts</t>
   </si>
 </sst>
 </file>
@@ -994,12 +997,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1244,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1253,20 +1264,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1633,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8226,6 +8238,29 @@
       </c>
       <c r="G286" s="19">
         <v>43897</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1371</v>
+      </c>
+      <c r="B287" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C287" t="s">
+        <v>18</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" t="s">
+        <v>105</v>
+      </c>
+      <c r="F287" t="s">
+        <v>7</v>
+      </c>
+      <c r="G287" s="19">
+        <v>43898</v>
       </c>
     </row>
   </sheetData>
@@ -8340,7 +8375,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F207C-F240-413F-94F1-B2BFC687EA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581357DA-8E78-4AC8-B5ED-D0EBCE1A5F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="288" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1620" windowWidth="27000" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="324">
   <si>
     <t>Number</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>Find the Longest Substring Containing Vowels in Even Counts</t>
+  </si>
+  <si>
+    <t>Maximum Sum BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1348,9 +1354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1388,7 +1394,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1494,7 +1500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1645,24 +1651,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3778,7 +3784,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3939,7 +3945,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3962,7 +3968,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4652,7 +4658,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4698,7 +4704,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4813,7 +4819,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5043,7 +5049,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5112,7 +5118,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5204,7 +5210,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5227,7 +5233,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5871,7 +5877,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5963,7 +5969,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5986,7 +5992,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6101,7 +6107,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6170,7 +6176,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6262,7 +6268,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6446,7 +6452,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6469,7 +6475,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6515,7 +6521,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6584,7 +6590,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6607,7 +6613,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6837,7 +6843,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6929,7 +6935,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7090,7 +7096,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7136,7 +7142,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7159,7 +7165,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7182,7 +7188,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7205,7 +7211,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7228,7 +7234,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7297,7 +7303,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7366,7 +7372,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7435,7 +7441,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7458,7 +7464,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7573,7 +7579,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7688,7 +7694,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7757,7 +7763,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7803,7 +7809,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7826,7 +7832,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7849,7 +7855,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7918,7 +7924,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7941,7 +7947,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8010,7 +8016,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8033,7 +8039,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8056,7 +8062,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8102,7 +8108,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8125,7 +8131,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8148,7 +8154,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8171,7 +8177,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8194,7 +8200,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8217,7 +8223,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8240,7 +8246,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8261,6 +8267,52 @@
       </c>
       <c r="G287" s="19">
         <v>43898</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1373</v>
+      </c>
+      <c r="B288" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" t="s">
+        <v>6</v>
+      </c>
+      <c r="G288" s="19">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>875</v>
+      </c>
+      <c r="B289" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C289" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289" t="s">
+        <v>6</v>
+      </c>
+      <c r="G289" s="19">
+        <v>43900</v>
       </c>
     </row>
   </sheetData>
@@ -8311,12 +8363,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8327,7 +8379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8338,7 +8390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8349,7 +8401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8360,7 +8412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8379,92 +8431,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581357DA-8E78-4AC8-B5ED-D0EBCE1A5F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763EC246-6277-4CE1-84DA-EC02E959AD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1620" windowWidth="27000" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="288" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="325">
   <si>
     <t>Number</t>
   </si>
@@ -994,6 +994,9 @@
   </si>
   <si>
     <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Find Right Interval</t>
   </si>
 </sst>
 </file>
@@ -1003,12 +1006,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1270,20 +1281,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1301,7 +1313,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1354,9 +1366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1394,7 +1406,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1500,7 +1512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1651,24 +1663,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294"/>
+      <selection activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2059,7 +2071,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2082,7 +2094,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2105,7 +2117,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2289,7 +2301,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2588,7 +2600,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2611,7 +2623,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2703,7 +2715,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2749,7 +2761,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2795,7 +2807,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3002,7 +3014,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3094,7 +3106,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3140,7 +3152,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3232,7 +3244,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3324,7 +3336,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3370,7 +3382,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3439,7 +3451,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3485,7 +3497,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3531,7 +3543,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3600,7 +3612,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3623,7 +3635,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3646,7 +3658,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3692,7 +3704,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3761,7 +3773,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3784,7 +3796,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3876,7 +3888,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -3991,7 +4003,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4060,7 +4072,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4083,7 +4095,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4106,7 +4118,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4290,7 +4302,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4359,7 +4371,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4520,7 +4532,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4681,7 +4693,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4704,7 +4716,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4727,7 +4739,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4750,7 +4762,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4773,7 +4785,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4796,7 +4808,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4819,7 +4831,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4888,7 +4900,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4980,7 +4992,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5026,7 +5038,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5072,7 +5084,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5118,7 +5130,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5210,7 +5222,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5256,7 +5268,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5279,7 +5291,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5348,7 +5360,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5371,7 +5383,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5394,7 +5406,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5417,7 +5429,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5440,7 +5452,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5463,7 +5475,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5509,7 +5521,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5532,7 +5544,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5555,7 +5567,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5578,7 +5590,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5624,7 +5636,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5670,7 +5682,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5693,7 +5705,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5808,7 +5820,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5831,7 +5843,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5854,7 +5866,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5877,7 +5889,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5900,7 +5912,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5946,7 +5958,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -5992,7 +6004,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6015,7 +6027,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6061,7 +6073,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6084,7 +6096,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6130,7 +6142,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6153,7 +6165,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6176,7 +6188,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6199,7 +6211,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6222,7 +6234,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6245,7 +6257,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6268,7 +6280,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6291,7 +6303,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6314,7 +6326,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6337,7 +6349,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6360,7 +6372,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6383,7 +6395,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6406,7 +6418,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6429,7 +6441,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6452,7 +6464,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6498,7 +6510,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6521,7 +6533,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6544,7 +6556,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6590,7 +6602,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6613,7 +6625,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6636,7 +6648,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6659,7 +6671,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6682,7 +6694,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6705,7 +6717,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6728,7 +6740,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6751,7 +6763,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6774,7 +6786,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6797,7 +6809,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6820,7 +6832,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6866,7 +6878,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6889,7 +6901,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6912,7 +6924,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6935,7 +6947,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6958,7 +6970,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6981,7 +6993,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7004,7 +7016,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7050,7 +7062,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7073,7 +7085,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7096,7 +7108,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7119,7 +7131,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7142,7 +7154,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7165,7 +7177,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7188,7 +7200,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7211,7 +7223,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7234,7 +7246,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7257,7 +7269,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7280,7 +7292,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7303,7 +7315,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7349,7 +7361,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7372,7 +7384,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7418,7 +7430,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7441,7 +7453,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7464,7 +7476,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7487,7 +7499,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7510,7 +7522,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7533,7 +7545,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7556,7 +7568,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7579,7 +7591,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7602,7 +7614,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7625,7 +7637,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7648,7 +7660,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7671,7 +7683,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7694,7 +7706,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7717,7 +7729,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7740,7 +7752,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7763,7 +7775,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7786,7 +7798,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7809,7 +7821,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7832,7 +7844,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7855,7 +7867,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7878,7 +7890,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7901,7 +7913,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7924,7 +7936,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7947,7 +7959,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7970,7 +7982,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -7993,7 +8005,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8016,7 +8028,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8039,7 +8051,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8062,7 +8074,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8085,7 +8097,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8108,7 +8120,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8131,7 +8143,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8154,7 +8166,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8177,7 +8189,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8200,7 +8212,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8223,7 +8235,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8246,7 +8258,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8269,7 +8281,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8292,7 +8304,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8313,6 +8325,29 @@
       </c>
       <c r="G289" s="19">
         <v>43900</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>436</v>
+      </c>
+      <c r="B290" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C290" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+      <c r="F290" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="19">
+        <v>43901</v>
       </c>
     </row>
   </sheetData>
@@ -8363,12 +8398,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8379,7 +8414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8390,7 +8425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8401,7 +8436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8412,7 +8447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8431,92 +8466,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763EC246-6277-4CE1-84DA-EC02E959AD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50727F-FDD2-4EB7-B956-E4F5ADC10A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="288" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="326">
   <si>
     <t>Number</t>
   </si>
@@ -997,6 +997,9 @@
   </si>
   <si>
     <t>Find Right Interval</t>
+  </si>
+  <si>
+    <t>Sum of Mutated Array Closest to Target</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1366,9 +1369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1406,7 +1409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1512,7 +1515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1663,24 +1666,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2945,7 +2948,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5291,7 +5294,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6487,7 +6490,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6993,7 +6996,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7499,7 +7502,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7798,7 +7801,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8327,7 +8330,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8348,6 +8351,29 @@
       </c>
       <c r="G290" s="19">
         <v>43901</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1300</v>
+      </c>
+      <c r="B291" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C291" t="s">
+        <v>17</v>
+      </c>
+      <c r="D291" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="19">
+        <v>43902</v>
       </c>
     </row>
   </sheetData>
@@ -8398,12 +8424,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8414,7 +8440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8425,7 +8451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8436,7 +8462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8447,7 +8473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8466,92 +8492,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50727F-FDD2-4EB7-B956-E4F5ADC10A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E959B92C-130B-49FA-980F-3C7BE432AE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="288" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="327">
   <si>
     <t>Number</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>Sum of Mutated Array Closest to Target</t>
+  </si>
+  <si>
+    <t>Deepest Leaves Sum</t>
   </si>
 </sst>
 </file>
@@ -1009,12 +1012,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1284,20 +1295,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1316,7 +1328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1369,9 +1381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1409,7 +1421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1515,7 +1527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1666,24 +1678,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G290" sqref="G290"/>
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1775,7 +1787,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1890,7 +1902,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2051,7 +2063,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3040,7 +3052,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3316,7 +3328,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3362,7 +3374,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3523,7 +3535,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3546,7 +3558,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3615,7 +3627,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3776,7 +3788,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3822,7 +3834,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -3960,7 +3972,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -3983,7 +3995,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4029,7 +4041,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4052,7 +4064,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4236,7 +4248,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4351,7 +4363,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4466,7 +4478,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4512,7 +4524,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4535,7 +4547,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4788,7 +4800,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4811,7 +4823,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4834,7 +4846,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4903,7 +4915,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5018,7 +5030,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5087,7 +5099,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5110,7 +5122,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5156,7 +5168,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5225,7 +5237,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5294,7 +5306,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5340,7 +5352,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5386,7 +5398,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5409,7 +5421,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5478,7 +5490,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5501,7 +5513,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5524,7 +5536,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5570,7 +5582,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5593,7 +5605,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5616,7 +5628,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5639,7 +5651,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5662,7 +5674,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5731,7 +5743,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5777,7 +5789,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5800,7 +5812,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5823,7 +5835,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5846,7 +5858,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5869,7 +5881,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5892,7 +5904,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -5915,7 +5927,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -5938,7 +5950,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -5984,7 +5996,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6030,7 +6042,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6053,7 +6065,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6122,7 +6134,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6145,7 +6157,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6260,7 +6272,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6283,7 +6295,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6306,7 +6318,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6375,7 +6387,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6398,7 +6410,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6421,7 +6433,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6444,7 +6456,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6513,7 +6525,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6536,7 +6548,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6559,7 +6571,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6582,7 +6594,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6605,7 +6617,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6628,7 +6640,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6651,7 +6663,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6674,7 +6686,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6697,7 +6709,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6720,7 +6732,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6789,7 +6801,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6881,7 +6893,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6904,7 +6916,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -6973,7 +6985,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -6996,7 +7008,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7042,7 +7054,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7065,7 +7077,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7134,7 +7146,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7157,7 +7169,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7180,7 +7192,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7203,7 +7215,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7226,7 +7238,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7249,7 +7261,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7272,7 +7284,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7295,7 +7307,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7318,7 +7330,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7341,7 +7353,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7364,7 +7376,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7387,7 +7399,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7433,7 +7445,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7456,7 +7468,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7479,7 +7491,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7502,7 +7514,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7548,7 +7560,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7571,7 +7583,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7594,7 +7606,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7617,7 +7629,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7640,7 +7652,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7686,7 +7698,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7709,7 +7721,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7732,7 +7744,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7755,7 +7767,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7778,7 +7790,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7847,7 +7859,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7870,7 +7882,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7893,7 +7905,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -7916,7 +7928,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -7939,7 +7951,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -7962,7 +7974,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -7985,7 +7997,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8008,7 +8020,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8031,7 +8043,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8054,7 +8066,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8077,7 +8089,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8100,7 +8112,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8123,7 +8135,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8146,7 +8158,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8169,7 +8181,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8192,7 +8204,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8215,7 +8227,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8238,7 +8250,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8261,7 +8273,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8284,7 +8296,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8330,7 +8342,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8353,7 +8365,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8374,6 +8386,29 @@
       </c>
       <c r="G291" s="19">
         <v>43902</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1302</v>
+      </c>
+      <c r="B292" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+      <c r="D292" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" t="s">
+        <v>11</v>
+      </c>
+      <c r="F292" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" s="19">
+        <v>43904</v>
       </c>
     </row>
   </sheetData>
@@ -8424,12 +8459,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8440,7 +8475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8451,7 +8486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8462,7 +8497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8473,7 +8508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8492,92 +8527,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E959B92C-130B-49FA-980F-3C7BE432AE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5068EDC2-08BB-49BE-BABC-9EE1EBB3E49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="288" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="330">
   <si>
     <t>Number</t>
   </si>
@@ -1003,6 +1003,15 @@
   </si>
   <si>
     <t>Deepest Leaves Sum</t>
+  </si>
+  <si>
+    <t>Lucky Numbers in a Matrix</t>
+  </si>
+  <si>
+    <t>Design a Stack With Increment Operation</t>
+  </si>
+  <si>
+    <t>Balance a Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -1012,12 +1021,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1286,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1295,20 +1312,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1678,10 +1696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8409,6 +8427,75 @@
       </c>
       <c r="G292" s="19">
         <v>43904</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1380</v>
+      </c>
+      <c r="B293" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" t="s">
+        <v>11</v>
+      </c>
+      <c r="F293" t="s">
+        <v>8</v>
+      </c>
+      <c r="G293" s="19">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1381</v>
+      </c>
+      <c r="B294" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C294" t="s">
+        <v>22</v>
+      </c>
+      <c r="D294" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" t="s">
+        <v>11</v>
+      </c>
+      <c r="F294" t="s">
+        <v>8</v>
+      </c>
+      <c r="G294" s="19">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1382</v>
+      </c>
+      <c r="B295" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C295" t="s">
+        <v>26</v>
+      </c>
+      <c r="D295" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" t="s">
+        <v>6</v>
+      </c>
+      <c r="G295" s="19">
+        <v>43905</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5068EDC2-08BB-49BE-BABC-9EE1EBB3E49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C1C1E-4627-40ED-AD30-19E5609EE04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="331">
   <si>
     <t>Number</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Path In Zigzag Labelled Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1021,12 +1024,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1303,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1312,20 +1323,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1696,10 +1708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8496,6 +8508,29 @@
       </c>
       <c r="G295" s="19">
         <v>43905</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1104</v>
+      </c>
+      <c r="B296" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C296" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" t="s">
+        <v>8</v>
+      </c>
+      <c r="G296" s="19">
+        <v>43907</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C1C1E-4627-40ED-AD30-19E5609EE04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFCBC9A-246A-405F-A8C0-D96C7964BB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="332">
   <si>
     <t>Number</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>Path In Zigzag Labelled Binary Tree</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
   </si>
 </sst>
 </file>
@@ -1024,12 +1027,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1314,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1323,20 +1334,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1708,10 +1720,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G296" sqref="G296"/>
+      <selection activeCell="G297" sqref="G297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8531,6 +8543,29 @@
       </c>
       <c r="G296" s="19">
         <v>43907</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>739</v>
+      </c>
+      <c r="B297" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C297" t="s">
+        <v>22</v>
+      </c>
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" t="s">
+        <v>6</v>
+      </c>
+      <c r="G297" s="19">
+        <v>43908</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFCBC9A-246A-405F-A8C0-D96C7964BB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993632E-56D8-450B-84BA-B176EDABBA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="335">
   <si>
     <t>Number</t>
   </si>
@@ -1018,6 +1018,15 @@
   </si>
   <si>
     <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Find the Distance Value Between Two Arrays</t>
+  </si>
+  <si>
+    <t>Shift 2D Grid</t>
   </si>
 </sst>
 </file>
@@ -1027,12 +1036,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1325,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1334,20 +1359,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1720,10 +1747,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G297" sqref="G297"/>
+      <selection activeCell="G300" sqref="G300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8566,6 +8593,75 @@
       </c>
       <c r="G297" s="19">
         <v>43908</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>412</v>
+      </c>
+      <c r="B298" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C298" t="s">
+        <v>16</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>11</v>
+      </c>
+      <c r="F298" t="s">
+        <v>8</v>
+      </c>
+      <c r="G298" s="19">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>1385</v>
+      </c>
+      <c r="B299" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="C299" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>11</v>
+      </c>
+      <c r="F299" t="s">
+        <v>8</v>
+      </c>
+      <c r="G299" s="19">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1260</v>
+      </c>
+      <c r="B300" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="C300" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" t="s">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>8</v>
+      </c>
+      <c r="G300" s="19">
+        <v>43912</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993632E-56D8-450B-84BA-B176EDABBA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E19E7-7C81-464D-AC04-46602908F85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="336">
   <si>
     <t>Number</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>Shift 2D Grid</t>
+  </si>
+  <si>
+    <t>Maximum Number of Balloons</t>
   </si>
 </sst>
 </file>
@@ -1036,12 +1039,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1359,20 +1370,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1747,10 +1759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G300" sqref="G300"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8661,7 +8673,30 @@
         <v>8</v>
       </c>
       <c r="G300" s="19">
-        <v>43912</v>
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1189</v>
+      </c>
+      <c r="B301" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C301" t="s">
+        <v>25</v>
+      </c>
+      <c r="D301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" t="s">
+        <v>8</v>
+      </c>
+      <c r="G301" s="19">
+        <v>43914</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E19E7-7C81-464D-AC04-46602908F85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E356287-B111-4253-B987-8D4AA8B08540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="338">
   <si>
     <t>Number</t>
   </si>
@@ -1030,6 +1030,12 @@
   </si>
   <si>
     <t>Maximum Number of Balloons</t>
+  </si>
+  <si>
+    <t>Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <t>Generate a String With Characters That Have Odd Counts</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1462,9 +1468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1502,7 +1508,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1608,7 +1614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1759,24 +1765,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5134,7 +5140,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5226,7 +5232,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5387,7 +5393,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5456,7 +5462,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5502,7 +5508,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5847,7 +5853,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6261,7 +6267,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6813,7 +6819,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7181,7 +7187,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7457,7 +7463,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7526,7 +7532,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7618,7 +7624,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7664,7 +7670,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7756,7 +7762,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7802,7 +7808,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7917,7 +7923,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8009,7 +8015,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8147,7 +8153,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8170,7 +8176,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8262,7 +8268,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8331,7 +8337,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8446,7 +8452,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8492,7 +8498,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8515,7 +8521,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8561,7 +8567,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8676,7 +8682,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8697,6 +8703,52 @@
       </c>
       <c r="G301" s="19">
         <v>43914</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1389</v>
+      </c>
+      <c r="B302" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="C302" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>11</v>
+      </c>
+      <c r="F302" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" s="19">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1374</v>
+      </c>
+      <c r="B303" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C303" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>11</v>
+      </c>
+      <c r="F303" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" s="19">
+        <v>43916</v>
       </c>
     </row>
   </sheetData>
@@ -8747,12 +8799,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8763,7 +8815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8774,7 +8826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +8837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8796,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8815,92 +8867,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E356287-B111-4253-B987-8D4AA8B08540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D08C0-0BE3-4357-8822-250CEC183A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="339">
   <si>
     <t>Number</t>
   </si>
@@ -1036,6 +1036,9 @@
   </si>
   <si>
     <t>Generate a String With Characters That Have Odd Counts</t>
+  </si>
+  <si>
+    <t>Reshape the Matrix</t>
   </si>
 </sst>
 </file>
@@ -1045,12 +1048,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1367,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1376,20 +1387,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1415,7 +1427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1468,9 +1480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1508,7 +1520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1614,7 +1626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1765,24 +1777,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+      <selection activeCell="G304" sqref="G304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2035,7 +2047,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2081,7 +2093,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2127,7 +2139,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2265,7 +2277,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2380,7 +2392,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2426,7 +2438,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2495,7 +2507,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2541,7 +2553,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2587,7 +2599,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2679,7 +2691,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2863,7 +2875,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2909,7 +2921,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -2978,7 +2990,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3047,7 +3059,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3300,7 +3312,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3346,7 +3358,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3369,7 +3381,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3415,7 +3427,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3438,7 +3450,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3461,7 +3473,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3530,7 +3542,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3599,7 +3611,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3622,7 +3634,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3668,7 +3680,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3714,7 +3726,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3760,7 +3772,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3829,7 +3841,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3852,7 +3864,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3875,7 +3887,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3898,7 +3910,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3921,7 +3933,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3944,7 +3956,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4036,7 +4048,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4082,7 +4094,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4128,7 +4140,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4174,7 +4186,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4220,7 +4232,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4266,7 +4278,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4289,7 +4301,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4358,7 +4370,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4381,7 +4393,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4450,7 +4462,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4519,7 +4531,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4588,7 +4600,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4634,7 +4646,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4703,7 +4715,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4772,7 +4784,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4864,7 +4876,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4933,7 +4945,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4956,7 +4968,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5071,7 +5083,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5094,7 +5106,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5117,7 +5129,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5140,7 +5152,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5163,7 +5175,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5186,7 +5198,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5232,7 +5244,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5255,7 +5267,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5278,7 +5290,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5301,7 +5313,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5324,7 +5336,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5347,7 +5359,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5370,7 +5382,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5393,7 +5405,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5416,7 +5428,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5439,7 +5451,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5462,7 +5474,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5485,7 +5497,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5508,7 +5520,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5531,7 +5543,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5554,7 +5566,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5577,7 +5589,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5600,7 +5612,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5623,7 +5635,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5646,7 +5658,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5669,7 +5681,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5715,7 +5727,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5738,7 +5750,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5761,7 +5773,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5784,7 +5796,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5807,7 +5819,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5830,7 +5842,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5853,7 +5865,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5876,7 +5888,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5899,7 +5911,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5945,7 +5957,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5968,7 +5980,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -5991,7 +6003,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6014,7 +6026,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6037,7 +6049,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6060,7 +6072,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6106,7 +6118,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6129,7 +6141,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6175,7 +6187,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6198,7 +6210,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6221,7 +6233,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6244,7 +6256,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6267,7 +6279,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6290,7 +6302,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6313,7 +6325,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6336,7 +6348,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6359,7 +6371,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6382,7 +6394,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6405,7 +6417,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6428,7 +6440,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6451,7 +6463,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6474,7 +6486,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6497,7 +6509,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6520,7 +6532,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6543,7 +6555,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6566,7 +6578,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6589,7 +6601,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6612,7 +6624,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6635,7 +6647,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6681,7 +6693,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6704,7 +6716,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6750,7 +6762,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6773,7 +6785,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6796,7 +6808,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6842,7 +6854,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6865,7 +6877,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6888,7 +6900,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6911,7 +6923,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6934,7 +6946,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6957,7 +6969,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -6980,7 +6992,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7003,7 +7015,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7026,7 +7038,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7049,7 +7061,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7072,7 +7084,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7118,7 +7130,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7141,7 +7153,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7164,7 +7176,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7210,7 +7222,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7233,7 +7245,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7256,7 +7268,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7279,7 +7291,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7302,7 +7314,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7348,7 +7360,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7371,7 +7383,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7394,7 +7406,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7417,7 +7429,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7440,7 +7452,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7463,7 +7475,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7486,7 +7498,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7509,7 +7521,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7532,7 +7544,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7555,7 +7567,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7578,7 +7590,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7601,7 +7613,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7624,7 +7636,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7647,7 +7659,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7670,7 +7682,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7693,7 +7705,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7716,7 +7728,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7739,7 +7751,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7762,7 +7774,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7785,7 +7797,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7808,7 +7820,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7831,7 +7843,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7854,7 +7866,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7877,7 +7889,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7900,7 +7912,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7923,7 +7935,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7946,7 +7958,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7969,7 +7981,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -7992,7 +8004,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8015,7 +8027,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8038,7 +8050,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8061,7 +8073,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8084,7 +8096,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8130,7 +8142,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8153,7 +8165,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8176,7 +8188,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8199,7 +8211,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8222,7 +8234,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8245,7 +8257,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8268,7 +8280,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8291,7 +8303,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8314,7 +8326,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8337,7 +8349,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8360,7 +8372,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8383,7 +8395,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8406,7 +8418,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8429,7 +8441,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8452,7 +8464,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8475,7 +8487,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8521,7 +8533,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8544,7 +8556,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8567,7 +8579,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8590,7 +8602,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8613,7 +8625,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8636,7 +8648,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8659,7 +8671,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8682,7 +8694,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8705,7 +8717,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1389</v>
       </c>
@@ -8728,7 +8740,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1374</v>
       </c>
@@ -8749,6 +8761,29 @@
       </c>
       <c r="G303" s="19">
         <v>43916</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>566</v>
+      </c>
+      <c r="B304" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C304" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>11</v>
+      </c>
+      <c r="F304" t="s">
+        <v>8</v>
+      </c>
+      <c r="G304" s="19">
+        <v>43917</v>
       </c>
     </row>
   </sheetData>
@@ -8799,12 +8834,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8815,7 +8850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8826,7 +8861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8837,7 +8872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8848,7 +8883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8867,92 +8902,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D08C0-0BE3-4357-8822-250CEC183A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADDB424-B612-4922-92F8-85D154E85737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="340">
   <si>
     <t>Number</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t>Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>Duplicate Zeros</t>
   </si>
 </sst>
 </file>
@@ -1048,12 +1051,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1378,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1387,20 +1398,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1777,10 +1789,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G304" sqref="G304"/>
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8784,6 +8796,29 @@
       </c>
       <c r="G304" s="19">
         <v>43917</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1089</v>
+      </c>
+      <c r="B305" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C305" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s">
+        <v>11</v>
+      </c>
+      <c r="F305" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" s="19">
+        <v>43918</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADDB424-B612-4922-92F8-85D154E85737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0AF011-24C5-4DDF-AADC-40A70F1F6D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="341">
   <si>
     <t>Number</t>
   </si>
@@ -1042,6 +1042,9 @@
   </si>
   <si>
     <t>Duplicate Zeros</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1492,9 +1495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1532,7 +1535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1638,7 +1641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1789,24 +1792,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F303" sqref="F303"/>
+      <selection activeCell="G307" sqref="G307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7303,7 +7306,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7579,7 +7582,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1030</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>872</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7878,7 +7881,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7901,7 +7904,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7924,7 +7927,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8039,7 +8042,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8361,7 +8364,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8430,7 +8433,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8568,7 +8571,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8591,7 +8594,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1389</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1374</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8819,6 +8822,29 @@
       </c>
       <c r="G305" s="19">
         <v>43918</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>202</v>
+      </c>
+      <c r="B306" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C306" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" t="s">
+        <v>8</v>
+      </c>
+      <c r="G306" s="19">
+        <v>43923</v>
       </c>
     </row>
   </sheetData>
@@ -8869,12 +8895,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8885,7 +8911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8896,7 +8922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8907,7 +8933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8918,7 +8944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8937,92 +8963,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0AF011-24C5-4DDF-AADC-40A70F1F6D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4109D0-4EAB-4927-8435-28BBA1DAC486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="342">
   <si>
     <t>Number</t>
   </si>
@@ -1045,6 +1045,9 @@
   </si>
   <si>
     <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
   </si>
 </sst>
 </file>
@@ -1054,12 +1057,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1392,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1401,20 +1412,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1442,7 +1454,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1478,7 +1490,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G308">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1495,9 +1507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1535,7 +1547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1641,7 +1653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1792,24 +1804,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G307" sqref="G307"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2223,7 +2235,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2867,7 +2879,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2913,7 +2925,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2936,7 +2948,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3166,7 +3178,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3327,7 +3339,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3442,7 +3454,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3511,7 +3523,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3534,7 +3546,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3580,7 +3592,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3626,7 +3638,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3695,7 +3707,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3718,7 +3730,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3741,7 +3753,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3879,7 +3891,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3948,7 +3960,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4040,7 +4052,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4063,7 +4075,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4132,7 +4144,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4316,7 +4328,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4339,7 +4351,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4362,7 +4374,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4431,7 +4443,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4454,7 +4466,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4546,7 +4558,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4592,7 +4604,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4638,7 +4650,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4684,7 +4696,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4753,7 +4765,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4799,7 +4811,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4845,7 +4857,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4868,7 +4880,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4960,7 +4972,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4983,7 +4995,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5029,7 +5041,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5052,7 +5064,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5075,7 +5087,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5121,7 +5133,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5144,7 +5156,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5190,7 +5202,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5213,7 +5225,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5259,7 +5271,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5328,7 +5340,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5351,7 +5363,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5397,7 +5409,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5420,7 +5432,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5466,7 +5478,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5489,7 +5501,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5512,7 +5524,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5535,7 +5547,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5558,7 +5570,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5604,7 +5616,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5650,7 +5662,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5673,7 +5685,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5696,7 +5708,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5719,7 +5731,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5742,7 +5754,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5765,7 +5777,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5788,7 +5800,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5811,7 +5823,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5834,7 +5846,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5857,7 +5869,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5880,7 +5892,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5903,7 +5915,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5926,7 +5938,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5949,7 +5961,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5972,7 +5984,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -5995,7 +6007,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6018,7 +6030,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6041,7 +6053,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6064,7 +6076,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6087,7 +6099,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6110,7 +6122,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6133,7 +6145,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6156,7 +6168,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6179,7 +6191,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6202,7 +6214,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6225,7 +6237,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6248,7 +6260,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6294,7 +6306,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6317,7 +6329,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6386,7 +6398,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6455,7 +6467,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6478,7 +6490,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6501,7 +6513,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6524,7 +6536,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6570,7 +6582,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6593,7 +6605,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6616,7 +6628,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6662,7 +6674,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6685,7 +6697,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6708,7 +6720,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6731,7 +6743,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6754,7 +6766,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6800,7 +6812,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6823,7 +6835,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6869,7 +6881,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6892,7 +6904,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6915,7 +6927,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6938,7 +6950,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6961,7 +6973,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7007,7 +7019,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7030,7 +7042,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7053,7 +7065,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7076,7 +7088,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7099,7 +7111,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7122,7 +7134,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7145,7 +7157,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7168,7 +7180,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7191,7 +7203,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7214,7 +7226,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7237,7 +7249,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7260,7 +7272,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7283,7 +7295,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7306,7 +7318,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7329,7 +7341,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7352,7 +7364,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7398,7 +7410,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7421,7 +7433,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7444,7 +7456,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7467,7 +7479,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7490,7 +7502,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7513,7 +7525,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7536,7 +7548,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7559,7 +7571,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7582,7 +7594,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7605,7 +7617,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7628,7 +7640,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7651,7 +7663,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7674,7 +7686,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7697,7 +7709,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7720,15 +7732,15 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>1030</v>
+        <v>872</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C258" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>12</v>
@@ -7743,15 +7755,15 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>872</v>
+        <v>1030</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C259" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D259" t="s">
         <v>12</v>
@@ -7766,7 +7778,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7789,7 +7801,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7812,7 +7824,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7835,7 +7847,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7881,7 +7893,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7904,7 +7916,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7927,7 +7939,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7950,7 +7962,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7973,7 +7985,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -7996,7 +8008,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8019,7 +8031,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8042,7 +8054,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8065,7 +8077,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8088,7 +8100,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8111,7 +8123,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8134,7 +8146,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8157,7 +8169,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8180,7 +8192,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8203,7 +8215,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8226,7 +8238,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8249,7 +8261,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8272,7 +8284,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8295,7 +8307,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8341,7 +8353,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8364,7 +8376,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8387,7 +8399,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8410,7 +8422,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8433,7 +8445,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8456,7 +8468,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8479,7 +8491,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8502,7 +8514,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8525,7 +8537,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8548,7 +8560,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8571,7 +8583,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8594,7 +8606,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8617,7 +8629,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8640,7 +8652,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8663,7 +8675,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8686,7 +8698,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8709,7 +8721,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8732,15 +8744,15 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="B302" s="42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C302" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D302" t="s">
         <v>12</v>
@@ -8749,21 +8761,21 @@
         <v>11</v>
       </c>
       <c r="F302" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G302" s="19">
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>1374</v>
+        <v>1389</v>
       </c>
       <c r="B303" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C303" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D303" t="s">
         <v>12</v>
@@ -8772,13 +8784,13 @@
         <v>11</v>
       </c>
       <c r="F303" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G303" s="19">
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8801,7 +8813,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8824,7 +8836,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8845,6 +8857,29 @@
       </c>
       <c r="G306" s="19">
         <v>43923</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>122</v>
+      </c>
+      <c r="B307" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" s="19">
+        <v>43926</v>
       </c>
     </row>
   </sheetData>
@@ -8895,12 +8930,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8911,7 +8946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8922,7 +8957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8933,7 +8968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8944,7 +8979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8963,92 +8998,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4109D0-4EAB-4927-8435-28BBA1DAC486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CE1747-C875-4F79-AB35-9352ED03E6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="344">
   <si>
     <t>Number</t>
   </si>
@@ -1048,6 +1048,12 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Count Largest Group</t>
+  </si>
+  <si>
+    <t>Construct K Palindrome Strings</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1507,9 +1513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1547,7 +1553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1653,7 +1659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1804,24 +1810,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3707,7 +3713,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3822,7 +3828,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4535,7 +4541,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4696,7 +4702,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4719,7 +4725,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -4995,7 +5001,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5455,7 +5461,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5547,7 +5553,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5961,7 +5967,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6168,7 +6174,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6743,7 +6749,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6950,7 +6956,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6973,7 +6979,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7226,7 +7232,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7272,7 +7278,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7341,7 +7347,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7410,7 +7416,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7433,7 +7439,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7548,7 +7554,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7594,7 +7600,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7617,7 +7623,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7686,7 +7692,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7709,7 +7715,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>872</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1030</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7939,7 +7945,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7962,7 +7968,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7985,7 +7991,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8054,7 +8060,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8169,7 +8175,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8353,7 +8359,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8445,7 +8451,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8491,7 +8497,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8537,7 +8543,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8583,7 +8589,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8606,7 +8612,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8629,7 +8635,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8675,7 +8681,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8721,7 +8727,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1374</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1389</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8836,7 +8842,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>122</v>
       </c>
@@ -8880,6 +8886,52 @@
       </c>
       <c r="G307" s="19">
         <v>43926</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1399</v>
+      </c>
+      <c r="B308" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C308" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308" t="s">
+        <v>11</v>
+      </c>
+      <c r="F308" t="s">
+        <v>8</v>
+      </c>
+      <c r="G308" s="19">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1400</v>
+      </c>
+      <c r="B309" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" t="s">
+        <v>7</v>
+      </c>
+      <c r="G309" s="19">
+        <v>43925</v>
       </c>
     </row>
   </sheetData>
@@ -8930,12 +8982,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8946,7 +8998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8957,7 +9009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8968,7 +9020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8979,7 +9031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -8998,92 +9050,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CE1747-C875-4F79-AB35-9352ED03E6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBE1CA-8A32-4853-8EF4-4514228A0DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="345">
   <si>
     <t>Number</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>Construct K Palindrome Strings</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
   </si>
 </sst>
 </file>
@@ -1063,12 +1066,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1409,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1418,20 +1429,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1460,7 +1472,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1496,7 +1508,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G308">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G310">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
   <tableColumns count="7">
@@ -1513,9 +1525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1553,7 +1565,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1659,7 +1671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1810,24 +1822,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B308" sqref="B308"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1919,7 +1931,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2103,7 +2115,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2149,7 +2161,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2356,7 +2368,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2402,7 +2414,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2586,7 +2598,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2839,7 +2851,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2862,7 +2874,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2885,7 +2897,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2908,7 +2920,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2954,7 +2966,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3092,7 +3104,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3138,7 +3150,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3184,7 +3196,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3230,7 +3242,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3276,7 +3288,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3322,7 +3334,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3460,7 +3472,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3552,7 +3564,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3575,7 +3587,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3621,7 +3633,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3690,7 +3702,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3759,7 +3771,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3943,7 +3955,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -3966,7 +3978,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4058,7 +4070,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4081,7 +4093,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4104,7 +4116,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4150,7 +4162,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4196,7 +4208,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4380,7 +4392,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4472,7 +4484,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4495,7 +4507,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4564,7 +4576,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4610,7 +4622,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4656,7 +4668,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4679,7 +4691,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4748,7 +4760,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4771,7 +4783,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4840,7 +4852,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4863,7 +4875,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4909,7 +4921,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4955,7 +4967,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -4978,7 +4990,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -5001,7 +5013,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5093,7 +5105,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5139,7 +5151,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5162,7 +5174,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5208,7 +5220,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5231,7 +5243,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5277,7 +5289,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5300,7 +5312,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5346,7 +5358,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5415,7 +5427,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5461,7 +5473,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5484,7 +5496,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5530,7 +5542,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5553,7 +5565,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5576,7 +5588,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5599,7 +5611,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5645,7 +5657,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5668,7 +5680,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5714,7 +5726,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5737,7 +5749,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5760,7 +5772,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5783,7 +5795,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5806,7 +5818,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5852,7 +5864,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5921,7 +5933,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -5967,7 +5979,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -6013,7 +6025,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6036,7 +6048,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6059,7 +6071,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6082,7 +6094,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6105,7 +6117,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6128,7 +6140,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6151,7 +6163,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6174,7 +6186,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6197,7 +6209,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6220,7 +6232,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6243,7 +6255,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6266,7 +6278,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6289,7 +6301,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6312,7 +6324,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6335,7 +6347,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6381,7 +6393,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6404,7 +6416,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6450,7 +6462,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6473,7 +6485,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6496,7 +6508,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6519,7 +6531,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6542,7 +6554,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6565,7 +6577,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6588,7 +6600,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6611,7 +6623,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6657,7 +6669,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6680,7 +6692,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6726,7 +6738,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6749,7 +6761,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6772,7 +6784,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6818,7 +6830,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6841,7 +6853,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6864,7 +6876,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6887,7 +6899,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6910,7 +6922,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6933,7 +6945,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6956,7 +6968,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -7002,7 +7014,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7025,7 +7037,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7048,7 +7060,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7071,7 +7083,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7094,7 +7106,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7117,7 +7129,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7140,7 +7152,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7186,7 +7198,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7209,7 +7221,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7255,7 +7267,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7301,7 +7313,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7324,7 +7336,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7347,7 +7359,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7370,7 +7382,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7416,7 +7428,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7439,7 +7451,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7462,7 +7474,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7508,7 +7520,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7554,7 +7566,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7577,7 +7589,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7600,7 +7612,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7646,7 +7658,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7669,7 +7681,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7692,7 +7704,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7715,7 +7727,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>872</v>
       </c>
@@ -7761,7 +7773,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1030</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7807,7 +7819,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7830,7 +7842,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7853,7 +7865,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7899,7 +7911,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7922,7 +7934,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7945,7 +7957,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -7968,7 +7980,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -7991,7 +8003,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8037,7 +8049,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8060,7 +8072,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8083,7 +8095,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8106,7 +8118,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8129,7 +8141,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8152,7 +8164,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8175,7 +8187,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8198,7 +8210,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8221,7 +8233,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8244,7 +8256,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8267,7 +8279,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8290,7 +8302,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8313,7 +8325,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8336,7 +8348,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8359,7 +8371,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8382,7 +8394,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8405,7 +8417,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8428,7 +8440,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8451,7 +8463,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8474,7 +8486,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8497,7 +8509,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8520,7 +8532,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8543,7 +8555,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8566,7 +8578,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8589,7 +8601,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8612,7 +8624,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8635,7 +8647,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8658,7 +8670,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8681,7 +8693,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8704,7 +8716,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8727,7 +8739,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8750,7 +8762,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1374</v>
       </c>
@@ -8773,7 +8785,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1389</v>
       </c>
@@ -8796,7 +8808,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8819,7 +8831,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8842,7 +8854,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8865,73 +8877,96 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>122</v>
+        <v>1399</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C307" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307" t="s">
+        <v>8</v>
+      </c>
+      <c r="G307" s="19">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>1400</v>
+      </c>
+      <c r="B308" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C308" t="s">
         <v>28</v>
       </c>
-      <c r="D307" t="s">
-        <v>12</v>
-      </c>
-      <c r="E307" t="s">
-        <v>11</v>
-      </c>
-      <c r="F307" t="s">
-        <v>9</v>
-      </c>
-      <c r="G307" s="19">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>1399</v>
-      </c>
-      <c r="B308" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C308" t="s">
-        <v>15</v>
-      </c>
       <c r="D308" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G308" s="19">
         <v>43925</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>1400</v>
+        <v>122</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
       </c>
       <c r="D309" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F309" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G309" s="19">
-        <v>43925</v>
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>13</v>
+      </c>
+      <c r="B310" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C310" t="s">
+        <v>18</v>
+      </c>
+      <c r="D310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" t="s">
+        <v>8</v>
+      </c>
+      <c r="G310" s="19">
+        <v>43928</v>
       </c>
     </row>
   </sheetData>
@@ -8982,12 +9017,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -8998,7 +9033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9009,7 +9044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -9020,7 +9055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9031,7 +9066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -9050,92 +9085,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBE1CA-8A32-4853-8EF4-4514228A0DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69B897-E703-41E6-8FE0-D1401B303FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="346">
   <si>
     <t>Number</t>
   </si>
@@ -1057,6 +1057,9 @@
   </si>
   <si>
     <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1066,12 +1069,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1420,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1429,20 +1440,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1822,10 +1834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8967,6 +8979,29 @@
       </c>
       <c r="G310" s="19">
         <v>43928</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>543</v>
+      </c>
+      <c r="B311" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C311" t="s">
+        <v>26</v>
+      </c>
+      <c r="D311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" t="s">
+        <v>8</v>
+      </c>
+      <c r="G311" s="19">
+        <v>43932</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69B897-E703-41E6-8FE0-D1401B303FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2033C-8251-42E7-AB8F-BE32A5B538B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="347">
   <si>
     <t>Number</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>String Matching in an Array</t>
   </si>
 </sst>
 </file>
@@ -1069,12 +1072,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1431,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1440,20 +1451,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1834,10 +1846,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+      <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9002,6 +9014,29 @@
       </c>
       <c r="G311" s="19">
         <v>43932</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1408</v>
+      </c>
+      <c r="B312" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C312" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312" t="s">
+        <v>8</v>
+      </c>
+      <c r="G312" s="19">
+        <v>43933</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2033C-8251-42E7-AB8F-BE32A5B538B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5DB1C-E3A5-4D5E-AE55-3D77F71622AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="348">
   <si>
     <t>Number</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>String Matching in an Array</t>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1549,9 +1552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1589,7 +1592,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1695,7 +1698,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1846,24 +1849,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G312" sqref="G312"/>
+      <selection activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6279,7 +6282,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7245,7 +7248,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7567,7 +7570,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>872</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1030</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7866,7 +7869,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8188,7 +8191,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8211,7 +8214,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8234,7 +8237,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1374</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1389</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8855,7 +8858,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1399</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1400</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>122</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>13</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>543</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1408</v>
       </c>
@@ -9037,6 +9040,29 @@
       </c>
       <c r="G312" s="19">
         <v>43933</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>525</v>
+      </c>
+      <c r="B313" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C313" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" t="s">
+        <v>7</v>
+      </c>
+      <c r="G313" s="19">
+        <v>43934</v>
       </c>
     </row>
   </sheetData>
@@ -9087,12 +9113,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9103,7 +9129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9114,7 +9140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -9125,7 +9151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9136,7 +9162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -9155,92 +9181,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5DB1C-E3A5-4D5E-AE55-3D77F71622AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD58C9-50D5-4F8B-B13B-378188AC4D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="349">
   <si>
     <t>Number</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>Contiguous Array</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis String</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1852,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F314" sqref="F314"/>
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9063,6 +9066,29 @@
       </c>
       <c r="G313" s="19">
         <v>43934</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>678</v>
+      </c>
+      <c r="B314" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C314" t="s">
+        <v>18</v>
+      </c>
+      <c r="D314" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" t="s">
+        <v>7</v>
+      </c>
+      <c r="G314" s="19">
+        <v>43937</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD58C9-50D5-4F8B-B13B-378188AC4D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA3614-76AE-475C-8FAD-A510FB8D4AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="354">
   <si>
     <t>Number</t>
   </si>
@@ -1069,6 +1069,21 @@
   </si>
   <si>
     <t>Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>Number of Closed Islands</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -1078,12 +1093,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1448,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1457,20 +1480,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1502,7 +1526,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1555,9 +1579,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1595,7 +1619,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1701,7 +1725,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1852,24 +1876,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1961,7 +1985,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -2007,7 +2031,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -2030,7 +2054,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -2053,7 +2077,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2076,7 +2100,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2099,7 +2123,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2122,7 +2146,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2145,7 +2169,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2168,7 +2192,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2191,7 +2215,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2237,7 +2261,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2260,7 +2284,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2283,7 +2307,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2306,7 +2330,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2329,7 +2353,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2352,7 +2376,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2375,7 +2399,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2398,7 +2422,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2421,7 +2445,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2444,7 +2468,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2467,7 +2491,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2490,7 +2514,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2513,7 +2537,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2536,7 +2560,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2559,7 +2583,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2582,7 +2606,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2605,7 +2629,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2651,7 +2675,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2674,7 +2698,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2697,7 +2721,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2720,7 +2744,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2743,7 +2767,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2789,7 +2813,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2812,7 +2836,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2881,7 +2905,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2904,7 +2928,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2927,7 +2951,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2950,7 +2974,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -2973,7 +2997,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -2996,7 +3020,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -3019,7 +3043,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -3042,7 +3066,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3065,7 +3089,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3088,7 +3112,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3111,7 +3135,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3134,7 +3158,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3180,7 +3204,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3203,7 +3227,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3226,7 +3250,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3249,7 +3273,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3272,7 +3296,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3295,7 +3319,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3318,7 +3342,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3341,7 +3365,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3364,7 +3388,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3387,7 +3411,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3410,7 +3434,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3433,7 +3457,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3456,7 +3480,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3479,7 +3503,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3502,7 +3526,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3525,7 +3549,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3548,7 +3572,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3571,7 +3595,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3594,7 +3618,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3617,7 +3641,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3640,7 +3664,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3663,7 +3687,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3686,7 +3710,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3709,7 +3733,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3755,7 +3779,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3778,7 +3802,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3801,7 +3825,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3847,7 +3871,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3893,7 +3917,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3916,7 +3940,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3939,7 +3963,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3962,7 +3986,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -4008,7 +4032,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -4031,7 +4055,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4054,7 +4078,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4077,7 +4101,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4100,7 +4124,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4123,7 +4147,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4146,7 +4170,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4169,7 +4193,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4192,7 +4216,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4215,7 +4239,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4238,7 +4262,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4261,7 +4285,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4284,7 +4308,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4307,7 +4331,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4330,7 +4354,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4353,7 +4377,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4376,7 +4400,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4399,7 +4423,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4422,7 +4446,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4445,7 +4469,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4468,7 +4492,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4491,7 +4515,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4514,7 +4538,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4537,7 +4561,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4560,7 +4584,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4583,7 +4607,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4606,7 +4630,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4629,7 +4653,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4652,7 +4676,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4675,7 +4699,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4698,7 +4722,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4721,7 +4745,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4744,7 +4768,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4767,7 +4791,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4790,7 +4814,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4813,7 +4837,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4836,7 +4860,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4859,7 +4883,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4882,7 +4906,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4905,7 +4929,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4928,7 +4952,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4951,7 +4975,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -4974,7 +4998,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -4997,7 +5021,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -5020,7 +5044,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -5043,7 +5067,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5066,7 +5090,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5089,7 +5113,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5112,7 +5136,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5135,7 +5159,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5158,7 +5182,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5181,7 +5205,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5204,7 +5228,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5227,7 +5251,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5250,7 +5274,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5273,7 +5297,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5296,7 +5320,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5319,7 +5343,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5342,7 +5366,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5365,7 +5389,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5388,7 +5412,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5411,7 +5435,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5434,7 +5458,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5457,7 +5481,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5480,7 +5504,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5503,7 +5527,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5526,7 +5550,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5549,7 +5573,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5572,7 +5596,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5595,7 +5619,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5618,7 +5642,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5641,7 +5665,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5664,7 +5688,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5687,7 +5711,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5710,7 +5734,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5733,7 +5757,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5756,7 +5780,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5779,7 +5803,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5802,7 +5826,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5825,7 +5849,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5848,7 +5872,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5871,7 +5895,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5894,7 +5918,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5917,7 +5941,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5940,7 +5964,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5963,7 +5987,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -5986,7 +6010,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -6009,7 +6033,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -6032,7 +6056,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -6055,7 +6079,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6078,7 +6102,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6101,7 +6125,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6124,7 +6148,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6147,7 +6171,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6170,7 +6194,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6193,7 +6217,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6216,7 +6240,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6239,7 +6263,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6262,7 +6286,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6285,7 +6309,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6308,7 +6332,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6331,7 +6355,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6354,7 +6378,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6377,7 +6401,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6400,7 +6424,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6423,7 +6447,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6446,7 +6470,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6469,7 +6493,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6492,7 +6516,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6515,7 +6539,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6538,7 +6562,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6561,7 +6585,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6584,7 +6608,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6607,7 +6631,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6630,7 +6654,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6653,7 +6677,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6676,7 +6700,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6699,7 +6723,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6722,7 +6746,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6745,7 +6769,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6768,7 +6792,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6791,7 +6815,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6814,7 +6838,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6837,7 +6861,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6860,7 +6884,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6883,7 +6907,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6906,7 +6930,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6929,7 +6953,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6952,7 +6976,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -6975,7 +6999,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -6998,7 +7022,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -7021,7 +7045,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -7044,7 +7068,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7067,7 +7091,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7090,7 +7114,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7113,7 +7137,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7136,7 +7160,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7159,7 +7183,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7182,7 +7206,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7205,7 +7229,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7228,7 +7252,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7251,7 +7275,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7274,7 +7298,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7297,7 +7321,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7320,7 +7344,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7343,7 +7367,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7366,7 +7390,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7389,7 +7413,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7412,7 +7436,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7435,7 +7459,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7458,7 +7482,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7481,7 +7505,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7504,7 +7528,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7527,7 +7551,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7550,7 +7574,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7573,7 +7597,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7596,7 +7620,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7619,7 +7643,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7642,7 +7666,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7665,7 +7689,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7688,7 +7712,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7711,7 +7735,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7734,7 +7758,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7757,7 +7781,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7780,7 +7804,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>872</v>
       </c>
@@ -7803,7 +7827,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1030</v>
       </c>
@@ -7826,7 +7850,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7849,7 +7873,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7872,7 +7896,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7895,7 +7919,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7918,7 +7942,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7941,7 +7965,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -7964,7 +7988,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -7987,7 +8011,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -8010,7 +8034,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -8033,7 +8057,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -8056,7 +8080,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8079,7 +8103,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8102,7 +8126,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8125,7 +8149,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8148,7 +8172,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8171,7 +8195,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8194,7 +8218,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8217,7 +8241,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8240,7 +8264,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8263,7 +8287,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8286,7 +8310,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8309,7 +8333,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8332,7 +8356,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8355,7 +8379,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8378,7 +8402,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8401,7 +8425,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8424,7 +8448,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8447,7 +8471,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8470,7 +8494,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8493,7 +8517,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8516,7 +8540,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8539,7 +8563,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8562,7 +8586,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8585,7 +8609,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8608,7 +8632,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8631,7 +8655,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8654,7 +8678,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8677,7 +8701,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8700,7 +8724,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8723,7 +8747,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8746,7 +8770,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8769,7 +8793,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8792,7 +8816,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1374</v>
       </c>
@@ -8815,7 +8839,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1389</v>
       </c>
@@ -8838,7 +8862,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8861,7 +8885,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8884,7 +8908,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8907,7 +8931,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1399</v>
       </c>
@@ -8930,7 +8954,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1400</v>
       </c>
@@ -8953,7 +8977,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>122</v>
       </c>
@@ -8976,7 +9000,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>13</v>
       </c>
@@ -8999,7 +9023,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>543</v>
       </c>
@@ -9022,7 +9046,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1408</v>
       </c>
@@ -9045,7 +9069,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>525</v>
       </c>
@@ -9068,7 +9092,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>678</v>
       </c>
@@ -9089,6 +9113,121 @@
       </c>
       <c r="G314" s="19">
         <v>43937</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>1254</v>
+      </c>
+      <c r="B315" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" t="s">
+        <v>7</v>
+      </c>
+      <c r="G315" s="19">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>200</v>
+      </c>
+      <c r="B316" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="C316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" t="s">
+        <v>7</v>
+      </c>
+      <c r="G316" s="19">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>64</v>
+      </c>
+      <c r="B317" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C317" t="s">
+        <v>27</v>
+      </c>
+      <c r="D317" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="19">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1008</v>
+      </c>
+      <c r="B318" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C318" t="s">
+        <v>26</v>
+      </c>
+      <c r="D318" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" t="s">
+        <v>6</v>
+      </c>
+      <c r="G318" s="19">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>33</v>
+      </c>
+      <c r="B319" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C319" t="s">
+        <v>17</v>
+      </c>
+      <c r="D319" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" t="s">
+        <v>11</v>
+      </c>
+      <c r="F319" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" s="19">
+        <v>43941</v>
       </c>
     </row>
   </sheetData>
@@ -9139,12 +9278,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9155,7 +9294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9166,7 +9305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -9177,7 +9316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9188,7 +9327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -9207,92 +9346,92 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA3614-76AE-475C-8FAD-A510FB8D4AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E170FCC-495D-4C5D-8074-6CB47DE25D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="355">
   <si>
     <t>Number</t>
   </si>
@@ -1084,6 +1084,9 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
   </si>
 </sst>
 </file>
@@ -1093,12 +1096,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1471,7 +1482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1480,20 +1491,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1876,10 +1888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A312" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G319" sqref="G319"/>
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9228,6 +9240,29 @@
       </c>
       <c r="G319" s="19">
         <v>43941</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>560</v>
+      </c>
+      <c r="B320" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="C320" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" t="s">
+        <v>11</v>
+      </c>
+      <c r="F320" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" s="19">
+        <v>43943</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E170FCC-495D-4C5D-8074-6CB47DE25D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1DF06-F780-40AA-BF40-F6D70496F066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="357">
   <si>
     <t>Number</t>
   </si>
@@ -1087,6 +1087,12 @@
   </si>
   <si>
     <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1544,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1573,7 +1579,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C50ED8C-B740-45AF-BDA6-0857A5A322F4}" name="Таблица1" displayName="Таблица1" ref="A1:G1048576" totalsRowShown="0">
-  <autoFilter ref="A1:G1048576" xr:uid="{059DB994-AB16-4545-BFB1-8470F05D6AA7}"/>
+  <autoFilter ref="A1:G1048576" xr:uid="{1B31E611-936D-4493-A7E1-C8F30E9AAC8E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G310">
     <sortCondition ref="G1:G1048576"/>
   </sortState>
@@ -1591,9 +1597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1631,7 +1637,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1737,7 +1743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1888,24 +1894,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>867</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>922</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>985</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>791</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>461</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>445</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>206</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>725</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4182,7 +4188,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4435,7 +4441,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4527,7 +4533,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4619,7 +4625,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4642,7 +4648,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4987,7 +4993,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>219</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>349</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>705</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>706</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5355,7 +5361,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5424,7 +5430,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5516,7 +5522,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5539,7 +5545,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5861,7 +5867,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>336</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>215</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>378</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>451</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>973</v>
       </c>
@@ -6091,7 +6097,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6206,7 +6212,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6275,7 +6281,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6321,7 +6327,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6390,7 +6396,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6482,7 +6488,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6597,7 +6603,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6666,7 +6672,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6712,7 +6718,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6735,7 +6741,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6827,7 +6833,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6873,7 +6879,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6896,7 +6902,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6965,7 +6971,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -7011,7 +7017,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -7057,7 +7063,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7149,7 +7155,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7172,7 +7178,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7310,7 +7316,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7333,7 +7339,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7356,7 +7362,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7379,7 +7385,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7448,7 +7454,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7494,7 +7500,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7540,7 +7546,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7770,7 +7776,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>872</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1030</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7885,7 +7891,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>226</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>637</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -8046,7 +8052,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -8092,7 +8098,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8138,7 +8144,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8161,7 +8167,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8184,7 +8190,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8230,7 +8236,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8253,7 +8259,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8299,7 +8305,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8345,7 +8351,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8368,7 +8374,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8414,7 +8420,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8506,7 +8512,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8529,7 +8535,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8598,7 +8604,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8621,7 +8627,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8667,7 +8673,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8713,7 +8719,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8759,7 +8765,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8782,7 +8788,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8805,7 +8811,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1374</v>
       </c>
@@ -8851,7 +8857,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1389</v>
       </c>
@@ -8874,7 +8880,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8897,7 +8903,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8943,7 +8949,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1399</v>
       </c>
@@ -8966,7 +8972,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1400</v>
       </c>
@@ -8989,7 +8995,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>122</v>
       </c>
@@ -9012,7 +9018,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>13</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>543</v>
       </c>
@@ -9058,7 +9064,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1408</v>
       </c>
@@ -9081,7 +9087,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>525</v>
       </c>
@@ -9104,7 +9110,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>678</v>
       </c>
@@ -9127,7 +9133,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1254</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>200</v>
       </c>
@@ -9173,7 +9179,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>64</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1008</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>33</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>560</v>
       </c>
@@ -9263,6 +9269,29 @@
       </c>
       <c r="G320" s="19">
         <v>43943</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>146</v>
+      </c>
+      <c r="B321" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C321" t="s">
+        <v>356</v>
+      </c>
+      <c r="D321" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" t="s">
+        <v>7</v>
+      </c>
+      <c r="G321" s="19">
+        <v>43945</v>
       </c>
     </row>
   </sheetData>
@@ -9274,12 +9303,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{439B48A7-F5F0-4CA1-98B9-82A208BF6843}">
-          <x14:formula1>
-            <xm:f>Topics!$A$2:$A$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A52D6CF-76DC-4461-B8AC-8BCD31966B24}">
           <x14:formula1>
             <xm:f>Tags!$C$2:$C$4</xm:f>
@@ -9298,6 +9321,12 @@
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2CBFF75-1579-4790-9822-B079C200EDDA}">
+          <x14:formula1>
+            <xm:f>Topics!$A$2:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -9313,12 +9342,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9329,7 +9358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9340,7 +9369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -9351,7 +9380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9362,7 +9391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -9375,103 +9404,109 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A17" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE1DF06-F780-40AA-BF40-F6D70496F066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4732D0-F875-45C4-A460-3B1319F0A4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1170" windowWidth="27000" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="361">
   <si>
     <t>Number</t>
   </si>
@@ -1093,6 +1093,18 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
   </si>
 </sst>
 </file>
@@ -1102,12 +1114,36 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1488,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1497,20 +1533,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1544,7 +1583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1597,9 +1636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1637,7 +1676,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1743,7 +1782,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1894,24 +1933,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>509</v>
       </c>
@@ -1957,7 +1996,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>766</v>
       </c>
@@ -1980,7 +2019,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>832</v>
       </c>
@@ -2003,7 +2042,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>867</v>
       </c>
@@ -2026,7 +2065,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>905</v>
       </c>
@@ -2049,7 +2088,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922</v>
       </c>
@@ -2072,7 +2111,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>985</v>
       </c>
@@ -2095,7 +2134,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>999</v>
       </c>
@@ -2118,7 +2157,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1051</v>
       </c>
@@ -2141,7 +2180,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>238</v>
       </c>
@@ -2164,7 +2203,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>442</v>
       </c>
@@ -2187,7 +2226,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>950</v>
       </c>
@@ -2210,7 +2249,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41</v>
       </c>
@@ -2233,7 +2272,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>57</v>
       </c>
@@ -2256,7 +2295,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>768</v>
       </c>
@@ -2279,7 +2318,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>769</v>
       </c>
@@ -2302,7 +2341,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>728</v>
       </c>
@@ -2325,7 +2364,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>812</v>
       </c>
@@ -2348,7 +2387,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>868</v>
       </c>
@@ -2371,7 +2410,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>883</v>
       </c>
@@ -2394,7 +2433,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>908</v>
       </c>
@@ -2417,7 +2456,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>942</v>
       </c>
@@ -2440,7 +2479,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -2463,7 +2502,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1103</v>
       </c>
@@ -2486,7 +2525,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>789</v>
       </c>
@@ -2509,7 +2548,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>885</v>
       </c>
@@ -2532,7 +2571,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1006</v>
       </c>
@@ -2555,7 +2594,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1017</v>
       </c>
@@ -2578,7 +2617,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>335</v>
       </c>
@@ -2601,7 +2640,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>233</v>
       </c>
@@ -2624,7 +2663,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>780</v>
       </c>
@@ -2647,7 +2686,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>744</v>
       </c>
@@ -2670,7 +2709,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2693,7 +2732,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>719</v>
       </c>
@@ -2716,7 +2755,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>657</v>
       </c>
@@ -2739,7 +2778,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>709</v>
       </c>
@@ -2762,7 +2801,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>804</v>
       </c>
@@ -2785,7 +2824,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>929</v>
       </c>
@@ -2808,7 +2847,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1108</v>
       </c>
@@ -2831,7 +2870,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>521</v>
       </c>
@@ -2854,7 +2893,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>824</v>
       </c>
@@ -2877,7 +2916,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>893</v>
       </c>
@@ -2900,7 +2939,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>917</v>
       </c>
@@ -2923,7 +2962,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>937</v>
       </c>
@@ -2946,7 +2985,7 @@
         <v>43659</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>890</v>
       </c>
@@ -2969,7 +3008,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>537</v>
       </c>
@@ -2992,7 +3031,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>791</v>
       </c>
@@ -3015,7 +3054,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -3038,7 +3077,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1106</v>
       </c>
@@ -3061,7 +3100,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461</v>
       </c>
@@ -3084,7 +3123,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>476</v>
       </c>
@@ -3107,7 +3146,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>762</v>
       </c>
@@ -3130,7 +3169,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136</v>
       </c>
@@ -3153,7 +3192,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>190</v>
       </c>
@@ -3176,7 +3215,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>191</v>
       </c>
@@ -3199,7 +3238,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>231</v>
       </c>
@@ -3222,7 +3261,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>268</v>
       </c>
@@ -3245,7 +3284,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>342</v>
       </c>
@@ -3268,7 +3307,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>371</v>
       </c>
@@ -3291,7 +3330,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>389</v>
       </c>
@@ -3314,7 +3353,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>405</v>
       </c>
@@ -3337,7 +3376,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>260</v>
       </c>
@@ -3360,7 +3399,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>137</v>
       </c>
@@ -3383,7 +3422,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>201</v>
       </c>
@@ -3406,7 +3445,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>318</v>
       </c>
@@ -3429,7 +3468,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>477</v>
       </c>
@@ -3452,7 +3491,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3475,7 +3514,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3498,7 +3537,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>125</v>
       </c>
@@ -3521,7 +3560,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>844</v>
       </c>
@@ -3567,7 +3606,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>925</v>
       </c>
@@ -3590,7 +3629,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>977</v>
       </c>
@@ -3613,7 +3652,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>532</v>
       </c>
@@ -3636,7 +3675,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>11</v>
       </c>
@@ -3659,7 +3698,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3682,7 +3721,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>986</v>
       </c>
@@ -3705,7 +3744,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3728,7 +3767,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3751,7 +3790,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>904</v>
       </c>
@@ -3774,7 +3813,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3797,7 +3836,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>237</v>
       </c>
@@ -3820,7 +3859,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>876</v>
       </c>
@@ -3843,7 +3882,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3866,7 +3905,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>203</v>
       </c>
@@ -3889,7 +3928,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>234</v>
       </c>
@@ -3912,7 +3951,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -3935,7 +3974,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3958,7 +3997,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>328</v>
       </c>
@@ -3981,7 +4020,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -4004,7 +4043,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>206</v>
       </c>
@@ -4027,7 +4066,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>725</v>
       </c>
@@ -4050,7 +4089,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -4073,7 +4112,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -4096,7 +4135,7 @@
         <v>43689</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>641</v>
       </c>
@@ -4119,7 +4158,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>622</v>
       </c>
@@ -4142,7 +4181,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>469</v>
       </c>
@@ -4165,7 +4204,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>682</v>
       </c>
@@ -4188,7 +4227,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>862</v>
       </c>
@@ -4211,7 +4250,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1047</v>
       </c>
@@ -4234,7 +4273,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>232</v>
       </c>
@@ -4257,7 +4296,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1021</v>
       </c>
@@ -4280,7 +4319,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -4303,7 +4342,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>155</v>
       </c>
@@ -4326,7 +4365,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4349,7 +4388,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>946</v>
       </c>
@@ -4372,7 +4411,7 @@
         <v>43694</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>503</v>
       </c>
@@ -4395,7 +4434,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>895</v>
       </c>
@@ -4418,7 +4457,7 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -4441,7 +4480,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4464,7 +4503,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>95</v>
       </c>
@@ -4487,7 +4526,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>104</v>
       </c>
@@ -4510,7 +4549,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -4533,7 +4572,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119</v>
       </c>
@@ -4556,7 +4595,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>775</v>
       </c>
@@ -4579,7 +4618,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>912</v>
       </c>
@@ -4602,7 +4641,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>98</v>
       </c>
@@ -4625,7 +4664,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>240</v>
       </c>
@@ -4648,7 +4687,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37</v>
       </c>
@@ -4671,7 +4710,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>51</v>
       </c>
@@ -4694,7 +4733,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>52</v>
       </c>
@@ -4717,7 +4756,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -4740,7 +4779,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -4763,7 +4802,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>46</v>
       </c>
@@ -4786,7 +4825,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>77</v>
       </c>
@@ -4809,7 +4848,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -4832,7 +4871,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>401</v>
       </c>
@@ -4855,7 +4894,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>784</v>
       </c>
@@ -4878,7 +4917,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39</v>
       </c>
@@ -4901,7 +4940,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4924,7 +4963,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>216</v>
       </c>
@@ -4947,7 +4986,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4970,7 +5009,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>217</v>
       </c>
@@ -4993,7 +5032,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>219</v>
       </c>
@@ -5016,7 +5055,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349</v>
       </c>
@@ -5039,7 +5078,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>705</v>
       </c>
@@ -5062,7 +5101,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>706</v>
       </c>
@@ -5085,7 +5124,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -5108,7 +5147,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>49</v>
       </c>
@@ -5131,7 +5170,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>205</v>
       </c>
@@ -5154,7 +5193,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>387</v>
       </c>
@@ -5177,7 +5216,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>599</v>
       </c>
@@ -5200,7 +5239,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5223,7 +5262,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>347</v>
       </c>
@@ -5246,7 +5285,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>380</v>
       </c>
@@ -5269,7 +5308,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>454</v>
       </c>
@@ -5292,7 +5331,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>652</v>
       </c>
@@ -5315,7 +5354,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>771</v>
       </c>
@@ -5338,7 +5377,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>144</v>
       </c>
@@ -5361,7 +5400,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -5384,7 +5423,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>102</v>
       </c>
@@ -5407,7 +5446,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5430,7 +5469,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>101</v>
       </c>
@@ -5453,7 +5492,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>105</v>
       </c>
@@ -5476,7 +5515,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>106</v>
       </c>
@@ -5499,7 +5538,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>116</v>
       </c>
@@ -5522,7 +5561,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>117</v>
       </c>
@@ -5545,7 +5584,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>236</v>
       </c>
@@ -5568,7 +5607,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>297</v>
       </c>
@@ -5591,7 +5630,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>429</v>
       </c>
@@ -5614,7 +5653,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>559</v>
       </c>
@@ -5637,7 +5676,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>589</v>
       </c>
@@ -5660,7 +5699,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>590</v>
       </c>
@@ -5683,7 +5722,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -5706,7 +5745,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>700</v>
       </c>
@@ -5729,7 +5768,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>701</v>
       </c>
@@ -5752,7 +5791,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>450</v>
       </c>
@@ -5775,7 +5814,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>220</v>
       </c>
@@ -5798,7 +5837,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>108</v>
       </c>
@@ -5821,7 +5860,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>110</v>
       </c>
@@ -5844,7 +5883,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>208</v>
       </c>
@@ -5867,7 +5906,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>648</v>
       </c>
@@ -5890,7 +5929,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>677</v>
       </c>
@@ -5913,7 +5952,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>211</v>
       </c>
@@ -5936,7 +5975,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>421</v>
       </c>
@@ -5959,7 +5998,7 @@
         <v>43751</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>212</v>
       </c>
@@ -5982,7 +6021,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>336</v>
       </c>
@@ -6005,7 +6044,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>215</v>
       </c>
@@ -6028,7 +6067,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>378</v>
       </c>
@@ -6051,7 +6090,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>451</v>
       </c>
@@ -6074,7 +6113,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>973</v>
       </c>
@@ -6097,7 +6136,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1046</v>
       </c>
@@ -6120,7 +6159,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>692</v>
       </c>
@@ -6143,7 +6182,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>720</v>
       </c>
@@ -6166,7 +6205,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>53</v>
       </c>
@@ -6189,7 +6228,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>121</v>
       </c>
@@ -6212,7 +6251,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>300</v>
       </c>
@@ -6235,7 +6274,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1025</v>
       </c>
@@ -6258,7 +6297,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1143</v>
       </c>
@@ -6281,7 +6320,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>72</v>
       </c>
@@ -6304,7 +6343,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>887</v>
       </c>
@@ -6327,7 +6366,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6350,7 +6389,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>518</v>
       </c>
@@ -6373,7 +6412,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1221</v>
       </c>
@@ -6396,7 +6435,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>944</v>
       </c>
@@ -6419,7 +6458,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1029</v>
       </c>
@@ -6442,7 +6481,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1217</v>
       </c>
@@ -6465,7 +6504,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>455</v>
       </c>
@@ -6488,7 +6527,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>860</v>
       </c>
@@ -6511,7 +6550,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>874</v>
       </c>
@@ -6534,7 +6573,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1005</v>
       </c>
@@ -6557,7 +6596,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>763</v>
       </c>
@@ -6580,7 +6619,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>921</v>
       </c>
@@ -6603,7 +6642,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>406</v>
       </c>
@@ -6626,7 +6665,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1090</v>
       </c>
@@ -6649,7 +6688,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>765</v>
       </c>
@@ -6672,7 +6711,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>997</v>
       </c>
@@ -6695,7 +6734,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1042</v>
       </c>
@@ -6718,7 +6757,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1161</v>
       </c>
@@ -6741,7 +6780,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>841</v>
       </c>
@@ -6764,7 +6803,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>959</v>
       </c>
@@ -6787,7 +6826,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1043</v>
       </c>
@@ -6810,7 +6849,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>399</v>
       </c>
@@ -6833,7 +6872,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>684</v>
       </c>
@@ -6856,7 +6895,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>802</v>
       </c>
@@ -6879,7 +6918,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>785</v>
       </c>
@@ -6902,7 +6941,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>996</v>
       </c>
@@ -6925,7 +6964,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>957</v>
       </c>
@@ -6948,7 +6987,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>938</v>
       </c>
@@ -6971,7 +7010,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1266</v>
       </c>
@@ -6994,7 +7033,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1281</v>
       </c>
@@ -7017,7 +7056,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1290</v>
       </c>
@@ -7040,7 +7079,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1295</v>
       </c>
@@ -7063,7 +7102,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1313</v>
       </c>
@@ -7086,7 +7125,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1323</v>
       </c>
@@ -7109,7 +7148,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1252</v>
       </c>
@@ -7132,7 +7171,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1309</v>
       </c>
@@ -7155,7 +7194,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>617</v>
       </c>
@@ -7178,7 +7217,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>961</v>
       </c>
@@ -7201,7 +7240,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1299</v>
       </c>
@@ -7224,7 +7263,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1304</v>
       </c>
@@ -7247,7 +7286,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>852</v>
       </c>
@@ -7270,7 +7309,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>965</v>
       </c>
@@ -7293,7 +7332,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1122</v>
       </c>
@@ -7316,7 +7355,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1207</v>
       </c>
@@ -7339,7 +7378,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -7362,7 +7401,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1329</v>
       </c>
@@ -7385,7 +7424,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1331</v>
       </c>
@@ -7408,7 +7447,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1332</v>
       </c>
@@ -7431,7 +7470,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>463</v>
       </c>
@@ -7454,7 +7493,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>884</v>
       </c>
@@ -7477,7 +7516,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>189</v>
       </c>
@@ -7500,7 +7539,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>897</v>
       </c>
@@ -7523,7 +7562,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>581</v>
       </c>
@@ -7546,7 +7585,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>665</v>
       </c>
@@ -7569,7 +7608,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1222</v>
       </c>
@@ -7592,7 +7631,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>669</v>
       </c>
@@ -7615,7 +7654,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1002</v>
       </c>
@@ -7638,7 +7677,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1160</v>
       </c>
@@ -7661,7 +7700,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1010</v>
       </c>
@@ -7684,7 +7723,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>821</v>
       </c>
@@ -7707,7 +7746,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1200</v>
       </c>
@@ -7730,7 +7769,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1341</v>
       </c>
@@ -7753,7 +7792,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>26</v>
       </c>
@@ -7776,7 +7815,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>27</v>
       </c>
@@ -7799,7 +7838,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>283</v>
       </c>
@@ -7822,7 +7861,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>872</v>
       </c>
@@ -7845,7 +7884,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1030</v>
       </c>
@@ -7868,7 +7907,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1022</v>
       </c>
@@ -7891,7 +7930,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1078</v>
       </c>
@@ -7914,7 +7953,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>930</v>
       </c>
@@ -7937,7 +7976,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1093</v>
       </c>
@@ -7960,7 +7999,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15</v>
       </c>
@@ -7983,7 +8022,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>226</v>
       </c>
@@ -8006,7 +8045,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>637</v>
       </c>
@@ -8029,7 +8068,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1342</v>
       </c>
@@ -8052,7 +8091,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1343</v>
       </c>
@@ -8075,7 +8114,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1344</v>
       </c>
@@ -8098,7 +8137,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>209</v>
       </c>
@@ -8121,7 +8160,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1004</v>
       </c>
@@ -8144,7 +8183,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1234</v>
       </c>
@@ -8167,7 +8206,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>424</v>
       </c>
@@ -8190,7 +8229,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>567</v>
       </c>
@@ -8213,7 +8252,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>978</v>
       </c>
@@ -8236,7 +8275,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1208</v>
       </c>
@@ -8259,7 +8298,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1052</v>
       </c>
@@ -8282,7 +8321,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1365</v>
       </c>
@@ -8305,7 +8344,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>35</v>
       </c>
@@ -8328,7 +8367,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1351</v>
       </c>
@@ -8351,7 +8390,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>441</v>
       </c>
@@ -8374,7 +8413,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>475</v>
       </c>
@@ -8397,7 +8436,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1011</v>
       </c>
@@ -8420,7 +8459,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1111</v>
       </c>
@@ -8443,7 +8482,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1370</v>
       </c>
@@ -8466,7 +8505,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1372</v>
       </c>
@@ -8489,7 +8528,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1371</v>
       </c>
@@ -8512,7 +8551,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1373</v>
       </c>
@@ -8535,7 +8574,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>875</v>
       </c>
@@ -8558,7 +8597,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>436</v>
       </c>
@@ -8581,7 +8620,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1300</v>
       </c>
@@ -8604,7 +8643,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1302</v>
       </c>
@@ -8627,7 +8666,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1380</v>
       </c>
@@ -8650,7 +8689,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1381</v>
       </c>
@@ -8673,7 +8712,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1382</v>
       </c>
@@ -8696,7 +8735,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1104</v>
       </c>
@@ -8719,7 +8758,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>739</v>
       </c>
@@ -8742,7 +8781,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>412</v>
       </c>
@@ -8765,7 +8804,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1385</v>
       </c>
@@ -8788,7 +8827,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1260</v>
       </c>
@@ -8811,7 +8850,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1189</v>
       </c>
@@ -8834,7 +8873,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1374</v>
       </c>
@@ -8857,7 +8896,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1389</v>
       </c>
@@ -8880,7 +8919,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>566</v>
       </c>
@@ -8903,7 +8942,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1089</v>
       </c>
@@ -8926,7 +8965,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>202</v>
       </c>
@@ -8949,7 +8988,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1399</v>
       </c>
@@ -8972,7 +9011,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1400</v>
       </c>
@@ -8995,7 +9034,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>122</v>
       </c>
@@ -9018,7 +9057,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>13</v>
       </c>
@@ -9041,7 +9080,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>543</v>
       </c>
@@ -9064,7 +9103,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1408</v>
       </c>
@@ -9087,7 +9126,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>525</v>
       </c>
@@ -9110,7 +9149,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>678</v>
       </c>
@@ -9133,7 +9172,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1254</v>
       </c>
@@ -9156,7 +9195,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>200</v>
       </c>
@@ -9179,7 +9218,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>64</v>
       </c>
@@ -9202,7 +9241,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1008</v>
       </c>
@@ -9225,7 +9264,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>33</v>
       </c>
@@ -9248,7 +9287,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>560</v>
       </c>
@@ -9271,7 +9310,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>146</v>
       </c>
@@ -9292,6 +9331,83 @@
       </c>
       <c r="G321" s="19">
         <v>43945</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>124</v>
+      </c>
+      <c r="B322" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" t="s">
+        <v>11</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" s="19">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>383</v>
+      </c>
+      <c r="B323" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="C323" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" s="19">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>278</v>
+      </c>
+      <c r="B324" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C324" t="s">
+        <v>17</v>
+      </c>
+      <c r="D324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" t="s">
+        <v>11</v>
+      </c>
+      <c r="F324" t="s">
+        <v>8</v>
+      </c>
+      <c r="G324" s="19">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>221</v>
+      </c>
+      <c r="B325" s="53" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -9342,12 +9458,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9358,7 +9474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9369,7 +9485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -9380,7 +9496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9391,7 +9507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -9410,97 +9526,97 @@
       <selection activeCell="A17" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>356</v>
       </c>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4732D0-F875-45C4-A460-3B1319F0A4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948C99C-15AA-4F90-9955-B6ECD10BBE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="362">
   <si>
     <t>Number</t>
   </si>
@@ -1105,6 +1105,9 @@
   </si>
   <si>
     <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
   </si>
 </sst>
 </file>
@@ -1114,12 +1117,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1524,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1533,20 +1544,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1933,10 +1945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G325"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9408,6 +9420,29 @@
       </c>
       <c r="B325" s="53" t="s">
         <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>169</v>
+      </c>
+      <c r="B326" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="C326" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" t="s">
+        <v>11</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" s="19">
+        <v>43957</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948C99C-15AA-4F90-9955-B6ECD10BBE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A83648-8028-4022-A200-DDFFF6F34B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="363">
   <si>
     <t>Number</t>
   </si>
@@ -1108,6 +1108,9 @@
   </si>
   <si>
     <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +1120,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1535,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1544,20 +1555,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1945,10 +1957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+      <selection activeCell="G327" sqref="G327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9443,6 +9455,29 @@
       </c>
       <c r="G326" s="19">
         <v>43957</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>993</v>
+      </c>
+      <c r="B327" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" t="s">
+        <v>12</v>
+      </c>
+      <c r="E327" t="s">
+        <v>11</v>
+      </c>
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" s="19">
+        <v>43958</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A83648-8028-4022-A200-DDFFF6F34B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EC262-D525-4163-8D3B-12907A53A25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="364">
   <si>
     <t>Number</t>
   </si>
@@ -1111,6 +1111,9 @@
   </si>
   <si>
     <t>Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>Check If It Is a Straight Line</t>
   </si>
 </sst>
 </file>
@@ -1120,12 +1123,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1546,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1555,20 +1566,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1957,10 +1969,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G327" sqref="G327"/>
+      <selection activeCell="F328" sqref="F328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9478,6 +9490,29 @@
       </c>
       <c r="G327" s="19">
         <v>43958</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>1232</v>
+      </c>
+      <c r="B328" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="C328" t="s">
+        <v>16</v>
+      </c>
+      <c r="D328" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s">
+        <v>7</v>
+      </c>
+      <c r="G328" s="19">
+        <v>43959</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EC262-D525-4163-8D3B-12907A53A25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368BC32-033A-4125-AB5E-DAF1EA5B3E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="369">
   <si>
     <t>Number</t>
   </si>
@@ -1114,6 +1114,21 @@
   </si>
   <si>
     <t>Check If It Is a Straight Line</t>
+  </si>
+  <si>
+    <t>Print in Order</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Day of the Week</t>
+  </si>
+  <si>
+    <t>Number of Lines To Write String</t>
+  </si>
+  <si>
+    <t>Keyboard Row</t>
   </si>
 </sst>
 </file>
@@ -1123,12 +1138,44 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1557,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1566,20 +1613,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1969,10 +2020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F328" sqref="F328"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9515,6 +9566,98 @@
         <v>43959</v>
       </c>
     </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>1114</v>
+      </c>
+      <c r="B329" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C329" t="s">
+        <v>365</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" t="s">
+        <v>11</v>
+      </c>
+      <c r="F329" t="s">
+        <v>7</v>
+      </c>
+      <c r="G329" s="19">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>1185</v>
+      </c>
+      <c r="B330" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="C330" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" t="s">
+        <v>7</v>
+      </c>
+      <c r="G330" s="19">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>806</v>
+      </c>
+      <c r="B331" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="C331" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" t="s">
+        <v>11</v>
+      </c>
+      <c r="F331" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="19">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>500</v>
+      </c>
+      <c r="B332" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C332" t="s">
+        <v>25</v>
+      </c>
+      <c r="D332" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" t="s">
+        <v>11</v>
+      </c>
+      <c r="F332" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" s="19">
+        <v>43976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9523,7 +9666,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A52D6CF-76DC-4461-B8AC-8BCD31966B24}">
           <x14:formula1>
             <xm:f>Tags!$C$2:$C$4</xm:f>
@@ -9546,7 +9689,13 @@
           <x14:formula1>
             <xm:f>Topics!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{118AC711-39E9-4EC3-BE47-0062EBDA23B3}">
+          <x14:formula1>
+            <xm:f>Topics!$A$2:$A$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9625,10 +9774,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9726,6 +9875,11 @@
         <v>356</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368BC32-033A-4125-AB5E-DAF1EA5B3E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7E8A8-1296-406B-903D-57108310C162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="371">
   <si>
     <t>Number</t>
   </si>
@@ -1129,6 +1129,12 @@
   </si>
   <si>
     <t>Keyboard Row</t>
+  </si>
+  <si>
+    <t>Consecutive Characters</t>
+  </si>
+  <si>
+    <t>Element Appearing More Than 25% In Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -1138,12 +1144,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1604,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1613,20 +1635,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2020,10 +2044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9656,6 +9680,52 @@
       </c>
       <c r="G332" s="19">
         <v>43976</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1446</v>
+      </c>
+      <c r="B333" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="C333" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" t="s">
+        <v>11</v>
+      </c>
+      <c r="F333" t="s">
+        <v>8</v>
+      </c>
+      <c r="G333" s="19">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1287</v>
+      </c>
+      <c r="B334" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="C334" t="s">
+        <v>15</v>
+      </c>
+      <c r="D334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" t="s">
+        <v>11</v>
+      </c>
+      <c r="F334" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" s="19">
+        <v>43978</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7E8A8-1296-406B-903D-57108310C162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A586F53-D906-45CD-A816-B571FA3F1773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="373">
   <si>
     <t>Number</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>Element Appearing More Than 25% In Sorted Array</t>
+  </si>
+  <si>
+    <t>Fair Candy Swap</t>
+  </si>
+  <si>
+    <t>Compare Strings by Frequency of the Smallest Character</t>
   </si>
 </sst>
 </file>
@@ -1144,12 +1150,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1626,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1635,20 +1657,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2044,10 +2068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
+      <selection activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9726,6 +9750,52 @@
       </c>
       <c r="G334" s="19">
         <v>43978</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>888</v>
+      </c>
+      <c r="B335" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="C335" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" t="s">
+        <v>9</v>
+      </c>
+      <c r="G335" s="19">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>1170</v>
+      </c>
+      <c r="B336" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C336" t="s">
+        <v>18</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>11</v>
+      </c>
+      <c r="F336" t="s">
+        <v>8</v>
+      </c>
+      <c r="G336" s="19">
+        <v>43980</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A586F53-D906-45CD-A816-B571FA3F1773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B526BA-E4EC-4101-A512-B79914887EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="379">
   <si>
     <t>Number</t>
   </si>
@@ -1141,6 +1141,24 @@
   </si>
   <si>
     <t>Compare Strings by Frequency of the Smallest Character</t>
+  </si>
+  <si>
+    <t>Make Two Arrays Equal by Reversing Sub-arrays</t>
+  </si>
+  <si>
+    <t>Check If a String Contains All Binary Codes of Size K</t>
+  </si>
+  <si>
+    <t>Course Schedule IV</t>
+  </si>
+  <si>
+    <t>Check If a Word Occurs As a Prefix of Any Word in a Sentence</t>
+  </si>
+  <si>
+    <t>Maximum Number of Vowels in a Substring of Given Length</t>
+  </si>
+  <si>
+    <t>Pseudo-Palindromic Paths in a Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1150,12 +1168,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1648,7 +1674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1657,20 +1683,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2068,10 +2095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F335" sqref="F335"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9796,6 +9823,144 @@
       </c>
       <c r="G336" s="19">
         <v>43980</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>1460</v>
+      </c>
+      <c r="B337" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="C337" t="s">
+        <v>15</v>
+      </c>
+      <c r="D337" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" t="s">
+        <v>11</v>
+      </c>
+      <c r="F337" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="19">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>1461</v>
+      </c>
+      <c r="B338" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="C338" t="s">
+        <v>320</v>
+      </c>
+      <c r="D338" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" t="s">
+        <v>11</v>
+      </c>
+      <c r="F338" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" s="19">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>1462</v>
+      </c>
+      <c r="B339" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C339" t="s">
+        <v>29</v>
+      </c>
+      <c r="D339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" t="s">
+        <v>11</v>
+      </c>
+      <c r="F339" t="s">
+        <v>9</v>
+      </c>
+      <c r="G339" s="19">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>1455</v>
+      </c>
+      <c r="B340" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="C340" t="s">
+        <v>17</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>11</v>
+      </c>
+      <c r="F340" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340" s="19">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1456</v>
+      </c>
+      <c r="B341" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="C341" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>11</v>
+      </c>
+      <c r="F341" t="s">
+        <v>8</v>
+      </c>
+      <c r="G341" s="19">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>1457</v>
+      </c>
+      <c r="B342" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>11</v>
+      </c>
+      <c r="F342" t="s">
+        <v>8</v>
+      </c>
+      <c r="G342" s="19">
+        <v>43981</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B526BA-E4EC-4101-A512-B79914887EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30930EA-E3FD-4F0C-AB54-5EB519DF7797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="382">
   <si>
     <t>Number</t>
   </si>
@@ -1159,6 +1159,15 @@
   </si>
   <si>
     <t>Pseudo-Palindromic Paths in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Maximum Product of Two Elements in an Array</t>
+  </si>
+  <si>
+    <t>Maximum Area of a Piece of Cake After Horizontal and Vertical Cuts</t>
+  </si>
+  <si>
+    <t>Reorder Routes to Make All Paths Lead to the City Zero</t>
   </si>
 </sst>
 </file>
@@ -1168,12 +1177,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1674,7 +1691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1683,20 +1700,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2095,10 +2113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E344" sqref="E344"/>
+      <selection activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9961,6 +9979,75 @@
       </c>
       <c r="G342" s="19">
         <v>43981</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>1464</v>
+      </c>
+      <c r="B343" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C343" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>11</v>
+      </c>
+      <c r="F343" t="s">
+        <v>8</v>
+      </c>
+      <c r="G343" s="19">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>1465</v>
+      </c>
+      <c r="B344" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C344" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" t="s">
+        <v>14</v>
+      </c>
+      <c r="E344" t="s">
+        <v>11</v>
+      </c>
+      <c r="F344" t="s">
+        <v>8</v>
+      </c>
+      <c r="G344" s="19">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>1466</v>
+      </c>
+      <c r="B345" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+      <c r="D345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345" t="s">
+        <v>11</v>
+      </c>
+      <c r="F345" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="19">
+        <v>43982</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30930EA-E3FD-4F0C-AB54-5EB519DF7797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23075735-C1E9-469C-9B84-D3D0D6BF61C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="383">
   <si>
     <t>Number</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>Reorder Routes to Make All Paths Lead to the City Zero</t>
+  </si>
+  <si>
+    <t>Random Pick with Weight</t>
   </si>
 </sst>
 </file>
@@ -1177,12 +1180,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1691,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1700,20 +1711,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2113,10 +2125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B344" sqref="B344"/>
+      <selection activeCell="G344" sqref="G344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10048,6 +10060,29 @@
       </c>
       <c r="G345" s="19">
         <v>43982</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>528</v>
+      </c>
+      <c r="B346" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="C346" t="s">
+        <v>17</v>
+      </c>
+      <c r="D346" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" t="s">
+        <v>11</v>
+      </c>
+      <c r="F346" t="s">
+        <v>6</v>
+      </c>
+      <c r="G346" s="19">
+        <v>43987</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23075735-C1E9-469C-9B84-D3D0D6BF61C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08312C09-84A7-48B5-9BAA-750B011F813D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="385">
   <si>
     <t>Number</t>
   </si>
@@ -1171,6 +1171,12 @@
   </si>
   <si>
     <t>Random Pick with Weight</t>
+  </si>
+  <si>
+    <t>Build an Array With Stack Operations</t>
+  </si>
+  <si>
+    <t>Minimum Time to Collect All Apples in a Tree</t>
   </si>
 </sst>
 </file>
@@ -1180,12 +1186,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1702,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1711,20 +1725,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2125,10 +2140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G344" sqref="G344"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10083,6 +10098,52 @@
       </c>
       <c r="G346" s="19">
         <v>43987</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>1441</v>
+      </c>
+      <c r="B347" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C347" t="s">
+        <v>22</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>11</v>
+      </c>
+      <c r="F347" t="s">
+        <v>8</v>
+      </c>
+      <c r="G347" s="19">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>1443</v>
+      </c>
+      <c r="B348" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+      <c r="D348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348" t="s">
+        <v>11</v>
+      </c>
+      <c r="F348" t="s">
+        <v>6</v>
+      </c>
+      <c r="G348" s="19">
+        <v>43988</v>
       </c>
     </row>
   </sheetData>

--- a/Interview preparation 2019-2020.xlsx
+++ b/Interview preparation 2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08312C09-84A7-48B5-9BAA-750B011F813D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1151C29-5474-4582-BCED-1A77584AA39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="388">
   <si>
     <t>Number</t>
   </si>
@@ -1177,6 +1177,15 @@
   </si>
   <si>
     <t>Minimum Time to Collect All Apples in a Tree</t>
+  </si>
+  <si>
+    <t>Shuffle the Array</t>
+  </si>
+  <si>
+    <t>The k Strongest Values in an Array</t>
+  </si>
+  <si>
+    <t>Design Browser History</t>
   </si>
 </sst>
 </file>
@@ -1186,12 +1195,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1716,7 +1733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1725,20 +1742,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2140,10 +2158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10144,6 +10162,75 @@
       </c>
       <c r="G348" s="19">
         <v>43988</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>1470</v>
+      </c>
+      <c r="B349" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="C349" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" t="s">
+        <v>11</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+      <c r="G349" s="19">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>1471</v>
+      </c>
+      <c r="B350" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="C350" t="s">
+        <v>15</v>
+      </c>
+      <c r="D350" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" t="s">
+        <v>11</v>
+      </c>
+      <c r="F350" t="s">
+        <v>8</v>
+      </c>
+      <c r="G350" s="19">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>1472</v>
+      </c>
+      <c r="B351" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="C351" t="s">
+        <v>356</v>
+      </c>
+      <c r="D351" t="s">
+        <v>14</v>
+      </c>
+      <c r="E351" t="s">
+        <v>11</v>
+      </c>
+      <c r="F351" t="s">
+        <v>8</v>
+      </c>
+      <c r="G351" s="19">
+        <v>43989</v>
       </c>
     </row>
   </sheetData>
